--- a/Financial Analysis/MA.xlsx
+++ b/Financial Analysis/MA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E065A-2F13-4AA7-8078-98D668B879F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134DACCA-ED80-4B88-8368-FEE38481CAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5EE3D269-52EC-4F93-A9AE-4AAFACF544BD}"/>
   </bookViews>
@@ -308,13 +308,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
@@ -332,7 +332,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9448800" y="0"/>
+          <a:off x="10058400" y="0"/>
           <a:ext cx="0" cy="6118860"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -714,21 +714,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="8" width="13.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
@@ -736,80 +738,80 @@
         <v>0</v>
       </c>
       <c r="D3" s="10">
-        <v>525</v>
+        <v>559.39</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45751</v>
       </c>
       <c r="F3" s="3">
-        <v>45751</v>
+        <f ca="1">TODAY()</f>
+        <v>45781</v>
       </c>
       <c r="G3" s="3">
-        <f ca="1">TODAY()</f>
-        <v>45751</v>
-      </c>
-      <c r="H3" s="3">
         <v>45771</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f>904.9+6.8</f>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1">
         <f>D3*D4</f>
-        <v>478642.49999999994</v>
+        <v>507982.05899999995</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <f>8442+492+330</f>
-        <v>9264</v>
+        <f>7575+319</f>
+        <v>7894</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <f>750+17476</f>
-        <v>18226</v>
+        <f>18802</f>
+        <v>18802</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1">
         <f>D6-D7</f>
-        <v>-8962</v>
+        <v>-10908</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1">
         <f>D5-D8</f>
-        <v>487604.49999999994</v>
+        <v>518890.05899999995</v>
       </c>
     </row>
   </sheetData>
@@ -822,10 +824,10 @@
   <dimension ref="A2:EP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM31" sqref="AM31"/>
+      <selection pane="bottomRight" activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,8 +980,7 @@
         <v>7489</v>
       </c>
       <c r="O3" s="7">
-        <f>K3*1.13</f>
-        <v>7173.2399999999989</v>
+        <v>7250</v>
       </c>
       <c r="P3" s="7">
         <f>L3*1.12</f>
@@ -1016,47 +1017,47 @@
       </c>
       <c r="Z3" s="7">
         <f>SUM(O3:R3)</f>
-        <v>31460.74</v>
+        <v>31537.5</v>
       </c>
       <c r="AA3" s="7">
         <f>Z3*1.1</f>
-        <v>34606.814000000006</v>
+        <v>34691.25</v>
       </c>
       <c r="AB3" s="7">
         <f>AA3*1.08</f>
-        <v>37375.359120000008</v>
+        <v>37466.550000000003</v>
       </c>
       <c r="AC3" s="7">
         <f>AB3*1.06</f>
-        <v>39617.880667200014</v>
+        <v>39714.543000000005</v>
       </c>
       <c r="AD3" s="7">
         <f>AC3*1.05</f>
-        <v>41598.774700560018</v>
+        <v>41700.270150000004</v>
       </c>
       <c r="AE3" s="7">
         <f>AD3*1.04</f>
-        <v>43262.725688582417</v>
+        <v>43368.280956000002</v>
       </c>
       <c r="AF3" s="7">
         <f>AE3*1.03</f>
-        <v>44560.607459239887</v>
+        <v>44669.329384680001</v>
       </c>
       <c r="AG3" s="7">
         <f t="shared" ref="AG3:AJ3" si="0">AF3*1.03</f>
-        <v>45897.425683017085</v>
+        <v>46009.409266220398</v>
       </c>
       <c r="AH3" s="7">
         <f t="shared" si="0"/>
-        <v>47274.348453507599</v>
+        <v>47389.691544207009</v>
       </c>
       <c r="AI3" s="7">
         <f t="shared" si="0"/>
-        <v>48692.578907112831</v>
+        <v>48811.38229053322</v>
       </c>
       <c r="AJ3" s="7">
         <f t="shared" si="0"/>
-        <v>50153.356274326215</v>
+        <v>50275.723759249217</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
@@ -1100,8 +1101,7 @@
         <v>2745</v>
       </c>
       <c r="O4" s="1">
-        <f>O3-O5</f>
-        <v>2582.3663999999999</v>
+        <v>2523</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ref="P4" si="1">P3-P5</f>
@@ -1138,47 +1138,47 @@
       </c>
       <c r="Z4" s="1">
         <f>SUM(O4:R4)</f>
-        <v>11490.778200000001</v>
+        <v>11431.411800000002</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" ref="AA4:AJ4" si="4">AA3-AA5</f>
-        <v>12458.45304</v>
+        <v>12488.849999999999</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="4"/>
-        <v>13455.129283200004</v>
+        <v>13487.958000000002</v>
       </c>
       <c r="AC4" s="1">
         <f t="shared" si="4"/>
-        <v>14262.437040192006</v>
+        <v>14297.235480000003</v>
       </c>
       <c r="AD4" s="1">
         <f t="shared" si="4"/>
-        <v>14975.558892201607</v>
+        <v>15012.097254</v>
       </c>
       <c r="AE4" s="1">
         <f t="shared" si="4"/>
-        <v>15574.58124788967</v>
+        <v>15612.581144160002</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" si="4"/>
-        <v>16041.818685326358</v>
+        <v>16080.958578484799</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="4"/>
-        <v>16523.073245886149</v>
+        <v>16563.387335839343</v>
       </c>
       <c r="AH4" s="1">
         <f t="shared" si="4"/>
-        <v>17018.765443262735</v>
+        <v>17060.288955914522</v>
       </c>
       <c r="AI4" s="1">
         <f t="shared" si="4"/>
-        <v>17529.32840656062</v>
+        <v>17572.097624591959</v>
       </c>
       <c r="AJ4" s="1">
         <f t="shared" si="4"/>
-        <v>18055.208258757437</v>
+        <v>18099.260553329717</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1187,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" ref="C5:N5" si="5">C3-C4</f>
+        <f t="shared" ref="C5:O5" si="5">C3-C4</f>
         <v>3323</v>
       </c>
       <c r="D5" s="7">
@@ -1235,8 +1235,8 @@
         <v>4744</v>
       </c>
       <c r="O5" s="7">
-        <f>O3*0.64</f>
-        <v>4590.873599999999</v>
+        <f t="shared" si="5"/>
+        <v>4727</v>
       </c>
       <c r="P5" s="7">
         <f>P3*0.64</f>
@@ -1276,47 +1276,47 @@
       </c>
       <c r="Z5" s="7">
         <f t="shared" si="6"/>
-        <v>19969.961800000001</v>
+        <v>20106.088199999998</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" ref="AA5:AJ5" si="7">AA3*0.64</f>
-        <v>22148.360960000005</v>
+        <v>22202.400000000001</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="7"/>
-        <v>23920.229836800005</v>
+        <v>23978.592000000001</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="7"/>
-        <v>25355.443627008008</v>
+        <v>25417.307520000002</v>
       </c>
       <c r="AD5" s="7">
         <f t="shared" si="7"/>
-        <v>26623.215808358411</v>
+        <v>26688.172896000004</v>
       </c>
       <c r="AE5" s="7">
         <f t="shared" si="7"/>
-        <v>27688.144440692748</v>
+        <v>27755.699811840001</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="7"/>
-        <v>28518.788773913529</v>
+        <v>28588.370806195202</v>
       </c>
       <c r="AG5" s="7">
         <f t="shared" si="7"/>
-        <v>29374.352437130936</v>
+        <v>29446.021930381055</v>
       </c>
       <c r="AH5" s="7">
         <f t="shared" si="7"/>
-        <v>30255.583010244864</v>
+        <v>30329.402588292487</v>
       </c>
       <c r="AI5" s="7">
         <f t="shared" si="7"/>
-        <v>31163.250500552211</v>
+        <v>31239.284665941261</v>
       </c>
       <c r="AJ5" s="7">
         <f t="shared" si="7"/>
-        <v>32098.148015568779</v>
+        <v>32176.463205919499</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
@@ -1360,8 +1360,7 @@
         <v>295</v>
       </c>
       <c r="O6" s="1">
-        <f>O3*0.02</f>
-        <v>143.46479999999997</v>
+        <v>152</v>
       </c>
       <c r="P6" s="1">
         <f>P3*0.03</f>
@@ -1398,47 +1397,47 @@
       </c>
       <c r="Z6" s="1">
         <f>SUM(O6:R6)</f>
-        <v>954.46879999999999</v>
+        <v>963.00400000000002</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" ref="AA6:AJ6" si="8">AA3*0.03</f>
-        <v>1038.20442</v>
+        <v>1040.7375</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="8"/>
-        <v>1121.2607736000002</v>
+        <v>1123.9965</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" si="8"/>
-        <v>1188.5364200160004</v>
+        <v>1191.4362900000001</v>
       </c>
       <c r="AD6" s="1">
         <f t="shared" si="8"/>
-        <v>1247.9632410168006</v>
+        <v>1251.0081045000002</v>
       </c>
       <c r="AE6" s="1">
         <f t="shared" si="8"/>
-        <v>1297.8817706574725</v>
+        <v>1301.0484286799999</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="8"/>
-        <v>1336.8182237771966</v>
+        <v>1340.0798815404</v>
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="8"/>
-        <v>1376.9227704905124</v>
+        <v>1380.2822779866119</v>
       </c>
       <c r="AH6" s="1">
         <f t="shared" si="8"/>
-        <v>1418.2304536052279</v>
+        <v>1421.6907463262103</v>
       </c>
       <c r="AI6" s="1">
         <f t="shared" si="8"/>
-        <v>1460.7773672133849</v>
+        <v>1464.3414687159966</v>
       </c>
       <c r="AJ6" s="1">
         <f t="shared" si="8"/>
-        <v>1504.6006882297863</v>
+        <v>1508.2717127774765</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
@@ -1482,8 +1481,7 @@
         <v>231</v>
       </c>
       <c r="O7" s="1">
-        <f>K7*1.1</f>
-        <v>237.60000000000002</v>
+        <v>275</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ref="P7:Q7" si="9">L7*1.1</f>
@@ -1520,7 +1518,7 @@
       </c>
       <c r="Z7" s="1">
         <f>SUM(O7:R7)</f>
-        <v>982.08</v>
+        <v>1019.48</v>
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -1574,8 +1572,7 @@
         <v>280</v>
       </c>
       <c r="O8" s="1">
-        <f>O3*0.02</f>
-        <v>143.46479999999997</v>
+        <v>151</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ref="P8:Q8" si="10">P3*0.02</f>
@@ -1612,47 +1609,47 @@
       </c>
       <c r="Z8" s="1">
         <f>SUM(O8:R8)</f>
-        <v>793.97280000000012</v>
+        <v>801.50800000000015</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" ref="AA8:AJ8" si="11">AA3*0.02</f>
-        <v>692.13628000000017</v>
+        <v>693.82500000000005</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="11"/>
-        <v>747.50718240000015</v>
+        <v>749.33100000000002</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" si="11"/>
-        <v>792.35761334400024</v>
+        <v>794.29086000000007</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" si="11"/>
-        <v>831.97549401120034</v>
+        <v>834.00540300000011</v>
       </c>
       <c r="AE8" s="1">
         <f t="shared" si="11"/>
-        <v>865.25451377164836</v>
+        <v>867.36561912000002</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="11"/>
-        <v>891.21214918479779</v>
+        <v>893.38658769360006</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="11"/>
-        <v>917.94851366034175</v>
+        <v>920.18818532440798</v>
       </c>
       <c r="AH8" s="1">
         <f t="shared" si="11"/>
-        <v>945.48696907015199</v>
+        <v>947.79383088414022</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="11"/>
-        <v>973.85157814225659</v>
+        <v>976.2276458106644</v>
       </c>
       <c r="AJ8" s="1">
         <f t="shared" si="11"/>
-        <v>1003.0671254865243</v>
+        <v>1005.5144751849843</v>
       </c>
     </row>
     <row r="9" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1710,7 +1707,7 @@
       </c>
       <c r="O9" s="7">
         <f t="shared" si="13"/>
-        <v>4066.3439999999991</v>
+        <v>4149</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="13"/>
@@ -1751,47 +1748,47 @@
       </c>
       <c r="Z9" s="7">
         <f t="shared" si="14"/>
-        <v>17239.440200000001</v>
+        <v>17322.096199999996</v>
       </c>
       <c r="AA9" s="7">
         <f t="shared" ref="AA9:AJ9" si="15">AA5-AA6-AA7-AA8</f>
-        <v>20418.020260000005</v>
+        <v>20467.837500000001</v>
       </c>
       <c r="AB9" s="7">
         <f t="shared" si="15"/>
-        <v>22051.461880800005</v>
+        <v>22105.264500000001</v>
       </c>
       <c r="AC9" s="7">
         <f t="shared" si="15"/>
-        <v>23374.549593648007</v>
+        <v>23431.58037</v>
       </c>
       <c r="AD9" s="7">
         <f t="shared" si="15"/>
-        <v>24543.27707333041</v>
+        <v>24603.159388500004</v>
       </c>
       <c r="AE9" s="7">
         <f t="shared" si="15"/>
-        <v>25525.008156263626</v>
+        <v>25587.285764040003</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="15"/>
-        <v>26290.758400951534</v>
+        <v>26354.904336961201</v>
       </c>
       <c r="AG9" s="7">
         <f t="shared" si="15"/>
-        <v>27079.481152980079</v>
+        <v>27145.551467070036</v>
       </c>
       <c r="AH9" s="7">
         <f t="shared" si="15"/>
-        <v>27891.865587569482</v>
+        <v>27959.918011082136</v>
       </c>
       <c r="AI9" s="7">
         <f t="shared" si="15"/>
-        <v>28728.621555196569</v>
+        <v>28798.7155514146</v>
       </c>
       <c r="AJ9" s="7">
         <f t="shared" si="15"/>
-        <v>29590.480201852468</v>
+        <v>29662.677017957038</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
@@ -1835,8 +1832,7 @@
         <v>-96</v>
       </c>
       <c r="O10" s="1">
-        <f>K10*1.02</f>
-        <v>-96.9</v>
+        <v>-88</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ref="P10:R13" si="16">L10*1.02</f>
@@ -1873,47 +1869,47 @@
       </c>
       <c r="Z10" s="1">
         <f>SUM(O10:R10)</f>
-        <v>-333.54</v>
+        <v>-324.64</v>
       </c>
       <c r="AA10" s="1">
         <f>Z10*1.03</f>
-        <v>-343.54620000000006</v>
+        <v>-334.37919999999997</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" ref="AB10:AJ10" si="18">AA10*1.03</f>
-        <v>-353.85258600000009</v>
+        <v>-344.41057599999999</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" si="18"/>
-        <v>-364.46816358000012</v>
+        <v>-354.74289327999998</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="18"/>
-        <v>-375.40220848740012</v>
+        <v>-365.38518007839997</v>
       </c>
       <c r="AE10" s="1">
         <f t="shared" si="18"/>
-        <v>-386.66427474202214</v>
+        <v>-376.34673548075199</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="18"/>
-        <v>-398.2642029842828</v>
+        <v>-387.63713754517454</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="18"/>
-        <v>-410.2121290738113</v>
+        <v>-399.2662516715298</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="18"/>
-        <v>-422.51849294602567</v>
+        <v>-411.24423922167568</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="18"/>
-        <v>-435.19404773440647</v>
+        <v>-423.58156639832595</v>
       </c>
       <c r="AJ10" s="1">
         <f t="shared" si="18"/>
-        <v>-448.24986916643866</v>
+        <v>-436.28901339027573</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
@@ -1957,8 +1953,7 @@
         <v>-40</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:O13" si="19">K11*1.02</f>
-        <v>-6.12</v>
+        <v>29</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="16"/>
@@ -1995,7 +1990,7 @@
       </c>
       <c r="Z11" s="1">
         <f>SUM(O11:R11)</f>
-        <v>29.58</v>
+        <v>64.7</v>
       </c>
       <c r="AA11" s="1">
         <v>40</v>
@@ -2069,8 +2064,7 @@
         <v>184</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="19"/>
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="16"/>
@@ -2107,47 +2101,47 @@
       </c>
       <c r="Z12" s="1">
         <f>SUM(O12:R12)</f>
-        <v>658.92000000000007</v>
+        <v>687.92000000000007</v>
       </c>
       <c r="AA12" s="1">
         <f>Z12*1.02</f>
-        <v>672.09840000000008</v>
+        <v>701.67840000000012</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" ref="AB12:AJ12" si="20">AA12*1.02</f>
-        <v>685.54036800000006</v>
+        <f t="shared" ref="AB12:AJ12" si="19">AA12*1.02</f>
+        <v>715.71196800000018</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" si="20"/>
-        <v>699.25117536000005</v>
+        <f t="shared" si="19"/>
+        <v>730.02620736000017</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="20"/>
-        <v>713.23619886720007</v>
+        <f t="shared" si="19"/>
+        <v>744.62673150720013</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="20"/>
-        <v>727.50092284454411</v>
+        <f t="shared" si="19"/>
+        <v>759.51926613734418</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="20"/>
-        <v>742.05094130143505</v>
+        <f t="shared" si="19"/>
+        <v>774.7096514600911</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="20"/>
-        <v>756.89196012746379</v>
+        <f t="shared" si="19"/>
+        <v>790.20384448929292</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="20"/>
-        <v>772.02979933001313</v>
+        <f t="shared" si="19"/>
+        <v>806.00792137907877</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="20"/>
-        <v>787.47039531661346</v>
+        <f t="shared" si="19"/>
+        <v>822.12807980666037</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="20"/>
-        <v>803.21980322294576</v>
+        <f t="shared" si="19"/>
+        <v>838.57064140279363</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
@@ -2191,8 +2185,7 @@
         <v>-1</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="19"/>
-        <v>-3.06</v>
+        <v>-5</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="16"/>
@@ -2229,7 +2222,7 @@
       </c>
       <c r="Z13" s="1">
         <f>SUM(O13:R13)</f>
-        <v>-20.400000000000002</v>
+        <v>-22.34</v>
       </c>
       <c r="AA13" s="1">
         <v>0</v>
@@ -2267,136 +2260,136 @@
         <v>25</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:N14" si="21">SUM(C10:C13)</f>
+        <f t="shared" ref="C14:N14" si="20">SUM(C10:C13)</f>
         <v>177</v>
       </c>
       <c r="D14" s="1">
+        <f t="shared" si="20"/>
+        <v>220</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="20"/>
+        <v>95</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="20"/>
+        <v>283</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="20"/>
+        <v>-48</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="20"/>
+        <v>83</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="20"/>
+        <v>51</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="20"/>
+        <v>46</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="20"/>
+        <v>97</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="20"/>
+        <v>138</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" ref="O14:R14" si="21">SUM(O10:O13)</f>
+        <v>118</v>
+      </c>
+      <c r="P14" s="1">
         <f t="shared" si="21"/>
-        <v>220</v>
-      </c>
-      <c r="E14" s="1">
+        <v>98.94</v>
+      </c>
+      <c r="Q14" s="1">
         <f t="shared" si="21"/>
-        <v>40</v>
-      </c>
-      <c r="F14" s="1">
+        <v>140.76</v>
+      </c>
+      <c r="R14" s="1">
         <f t="shared" si="21"/>
-        <v>95</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="21"/>
-        <v>283</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="21"/>
-        <v>-48</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="21"/>
-        <v>83</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="21"/>
-        <v>51</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="21"/>
-        <v>46</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="21"/>
-        <v>97</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="21"/>
-        <v>138</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="21"/>
-        <v>47</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" ref="O14:R14" si="22">SUM(O10:O13)</f>
-        <v>46.919999999999987</v>
-      </c>
-      <c r="P14" s="1">
+        <v>47.940000000000005</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" ref="T14:AJ14" si="22">SUM(T10:T13)</f>
+        <v>-67</v>
+      </c>
+      <c r="U14" s="1">
         <f t="shared" si="22"/>
-        <v>98.94</v>
-      </c>
-      <c r="Q14" s="1">
+        <v>321</v>
+      </c>
+      <c r="V14" s="1">
         <f t="shared" si="22"/>
-        <v>140.76</v>
-      </c>
-      <c r="R14" s="1">
+        <v>-225</v>
+      </c>
+      <c r="W14" s="1">
         <f t="shared" si="22"/>
-        <v>47.940000000000005</v>
-      </c>
-      <c r="T14" s="1">
-        <f t="shared" ref="T14:AJ14" si="23">SUM(T10:T13)</f>
-        <v>-67</v>
-      </c>
-      <c r="U14" s="1">
-        <f t="shared" si="23"/>
-        <v>321</v>
-      </c>
-      <c r="V14" s="1">
-        <f t="shared" si="23"/>
-        <v>-225</v>
-      </c>
-      <c r="W14" s="1">
-        <f t="shared" si="23"/>
         <v>532</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>369</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>328</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="23"/>
-        <v>334.56000000000006</v>
+        <f t="shared" si="22"/>
+        <v>405.6400000000001</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="23"/>
-        <v>368.55220000000003</v>
+        <f t="shared" si="22"/>
+        <v>407.29920000000016</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="23"/>
-        <v>371.68778199999997</v>
+        <f t="shared" si="22"/>
+        <v>411.30139200000019</v>
       </c>
       <c r="AC14" s="1">
-        <f t="shared" si="23"/>
-        <v>374.78301177999992</v>
+        <f t="shared" si="22"/>
+        <v>415.2833140800002</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="23"/>
-        <v>377.83399037979996</v>
+        <f t="shared" si="22"/>
+        <v>419.24155142880016</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="23"/>
-        <v>380.83664810252196</v>
+        <f t="shared" si="22"/>
+        <v>423.17253065659219</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="23"/>
-        <v>383.78673831715224</v>
+        <f t="shared" si="22"/>
+        <v>427.07251391491656</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="23"/>
-        <v>386.67983105365249</v>
+        <f t="shared" si="22"/>
+        <v>430.93759281776312</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="23"/>
-        <v>389.51130638398746</v>
+        <f t="shared" si="22"/>
+        <v>434.76368215740308</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="23"/>
-        <v>392.27634758220699</v>
+        <f t="shared" si="22"/>
+        <v>438.54651340833442</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="23"/>
-        <v>394.9699340565071</v>
+        <f t="shared" si="22"/>
+        <v>442.2816280125179</v>
       </c>
     </row>
     <row r="15" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2405,136 +2398,136 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" ref="C15:N15" si="24">C9-C14</f>
+        <f t="shared" ref="C15:N15" si="23">C9-C14</f>
         <v>2773</v>
       </c>
       <c r="D15" s="7">
+        <f t="shared" si="23"/>
+        <v>2798</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="23"/>
+        <v>3072</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="23"/>
+        <v>3089</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="23"/>
+        <v>2853</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="23"/>
+        <v>3704</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="23"/>
+        <v>3761</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="23"/>
+        <v>3321</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="23"/>
+        <v>3558</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="23"/>
+        <v>3939</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="23"/>
+        <v>3866</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="23"/>
+        <v>3891</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" ref="O15:R15" si="24">O9-O14</f>
+        <v>4031</v>
+      </c>
+      <c r="P15" s="7">
         <f t="shared" si="24"/>
-        <v>2798</v>
-      </c>
-      <c r="E15" s="7">
+        <v>4253.3888000000006</v>
+      </c>
+      <c r="Q15" s="7">
         <f t="shared" si="24"/>
-        <v>3072</v>
-      </c>
-      <c r="F15" s="7">
+        <v>4398.6424000000006</v>
+      </c>
+      <c r="R15" s="7">
         <f t="shared" si="24"/>
-        <v>3089</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="24"/>
-        <v>2853</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="24"/>
-        <v>3704</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="24"/>
-        <v>3761</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="24"/>
-        <v>3321</v>
-      </c>
-      <c r="K15" s="7">
-        <f t="shared" si="24"/>
-        <v>3558</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="24"/>
-        <v>3939</v>
-      </c>
-      <c r="M15" s="7">
-        <f t="shared" si="24"/>
-        <v>3866</v>
-      </c>
-      <c r="N15" s="7">
-        <f t="shared" si="24"/>
-        <v>3891</v>
-      </c>
-      <c r="O15" s="7">
-        <f t="shared" ref="O15:R15" si="25">O9-O14</f>
-        <v>4019.4239999999991</v>
-      </c>
-      <c r="P15" s="7">
+        <v>4233.425000000002</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" ref="T15:AJ15" si="25">T9-T14</f>
+        <v>9731</v>
+      </c>
+      <c r="U15" s="7">
         <f t="shared" si="25"/>
-        <v>4253.3888000000006</v>
-      </c>
-      <c r="Q15" s="7">
+        <v>7760</v>
+      </c>
+      <c r="V15" s="7">
         <f t="shared" si="25"/>
-        <v>4398.6424000000006</v>
-      </c>
-      <c r="R15" s="7">
+        <v>10307</v>
+      </c>
+      <c r="W15" s="7">
         <f t="shared" si="25"/>
-        <v>4233.425000000002</v>
-      </c>
-      <c r="T15" s="7">
-        <f t="shared" ref="T15:AJ15" si="26">T9-T14</f>
-        <v>9731</v>
-      </c>
-      <c r="U15" s="7">
-        <f t="shared" si="26"/>
-        <v>7760</v>
-      </c>
-      <c r="V15" s="7">
-        <f t="shared" si="26"/>
-        <v>10307</v>
-      </c>
-      <c r="W15" s="7">
-        <f t="shared" si="26"/>
         <v>11732</v>
       </c>
       <c r="X15" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>13639</v>
       </c>
       <c r="Y15" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>15254</v>
       </c>
       <c r="Z15" s="7">
-        <f t="shared" si="26"/>
-        <v>16904.8802</v>
+        <f t="shared" si="25"/>
+        <v>16916.456199999997</v>
       </c>
       <c r="AA15" s="7">
-        <f t="shared" si="26"/>
-        <v>20049.468060000007</v>
+        <f t="shared" si="25"/>
+        <v>20060.5383</v>
       </c>
       <c r="AB15" s="7">
-        <f t="shared" si="26"/>
-        <v>21679.774098800004</v>
+        <f t="shared" si="25"/>
+        <v>21693.963108</v>
       </c>
       <c r="AC15" s="7">
-        <f t="shared" si="26"/>
-        <v>22999.766581868007</v>
+        <f t="shared" si="25"/>
+        <v>23016.29705592</v>
       </c>
       <c r="AD15" s="7">
-        <f t="shared" si="26"/>
-        <v>24165.443082950609</v>
+        <f t="shared" si="25"/>
+        <v>24183.917837071203</v>
       </c>
       <c r="AE15" s="7">
-        <f t="shared" si="26"/>
-        <v>25144.171508161104</v>
+        <f t="shared" si="25"/>
+        <v>25164.11323338341</v>
       </c>
       <c r="AF15" s="7">
-        <f t="shared" si="26"/>
-        <v>25906.971662634383</v>
+        <f t="shared" si="25"/>
+        <v>25927.831823046283</v>
       </c>
       <c r="AG15" s="7">
-        <f t="shared" si="26"/>
-        <v>26692.801321926425</v>
+        <f t="shared" si="25"/>
+        <v>26714.613874252274</v>
       </c>
       <c r="AH15" s="7">
-        <f t="shared" si="26"/>
-        <v>27502.354281185493</v>
+        <f t="shared" si="25"/>
+        <v>27525.154328924735</v>
       </c>
       <c r="AI15" s="7">
-        <f t="shared" si="26"/>
-        <v>28336.345207614362</v>
+        <f t="shared" si="25"/>
+        <v>28360.169038006265</v>
       </c>
       <c r="AJ15" s="7">
-        <f t="shared" si="26"/>
-        <v>29195.510267795962</v>
+        <f t="shared" si="25"/>
+        <v>29220.395389944519</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
@@ -2578,19 +2571,18 @@
         <v>549</v>
       </c>
       <c r="O16" s="1">
-        <f>O15*0.15</f>
-        <v>602.91359999999986</v>
+        <v>751</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" ref="P16:R16" si="27">P15*0.15</f>
+        <f t="shared" ref="P16:R16" si="26">P15*0.15</f>
         <v>638.00832000000003</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>659.79636000000005</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>635.0137500000003</v>
       </c>
       <c r="T16" s="1">
@@ -2616,47 +2608,47 @@
       </c>
       <c r="Z16" s="1">
         <f>SUM(O16:R16)</f>
-        <v>2535.7320300000001</v>
+        <v>2683.8184300000003</v>
       </c>
       <c r="AA16" s="1">
-        <f t="shared" ref="AA16:AJ16" si="28">AA15*0.16</f>
-        <v>3207.9148896000011</v>
+        <f t="shared" ref="AA16:AJ16" si="27">AA15*0.16</f>
+        <v>3209.6861280000003</v>
       </c>
       <c r="AB16" s="1">
-        <f t="shared" si="28"/>
-        <v>3468.7638558080007</v>
+        <f t="shared" si="27"/>
+        <v>3471.03409728</v>
       </c>
       <c r="AC16" s="1">
-        <f t="shared" si="28"/>
-        <v>3679.9626530988812</v>
+        <f t="shared" si="27"/>
+        <v>3682.6075289472001</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="28"/>
-        <v>3866.4708932720973</v>
+        <f t="shared" si="27"/>
+        <v>3869.4268539313925</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="28"/>
-        <v>4023.0674413057768</v>
+        <f t="shared" si="27"/>
+        <v>4026.258117341346</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="28"/>
-        <v>4145.1154660215016</v>
+        <f t="shared" si="27"/>
+        <v>4148.4530916874055</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="28"/>
-        <v>4270.8482115082279</v>
+        <f t="shared" si="27"/>
+        <v>4274.3382198803638</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="28"/>
-        <v>4400.3766849896792</v>
+        <f t="shared" si="27"/>
+        <v>4404.0246926279578</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="28"/>
-        <v>4533.8152332182981</v>
+        <f t="shared" si="27"/>
+        <v>4537.6270460810028</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="28"/>
-        <v>4671.2816428473543</v>
+        <f t="shared" si="27"/>
+        <v>4675.2632623911231</v>
       </c>
     </row>
     <row r="17" spans="1:146" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2665,576 +2657,576 @@
         <v>22</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" ref="C17:L17" si="29">C15-C16</f>
+        <f t="shared" ref="C17:L17" si="28">C15-C16</f>
         <v>2631</v>
       </c>
       <c r="D17" s="7">
+        <f t="shared" si="28"/>
+        <v>2275</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="28"/>
+        <v>2499</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="28"/>
+        <v>2525</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="28"/>
+        <v>2361</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="28"/>
+        <v>2845</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="28"/>
+        <v>3198</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="28"/>
+        <v>2791</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="28"/>
+        <v>3011</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="28"/>
+        <v>3258</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" ref="M17:N17" si="29">M15-M16</f>
+        <v>3263</v>
+      </c>
+      <c r="N17" s="7">
         <f t="shared" si="29"/>
-        <v>2275</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" si="29"/>
-        <v>2499</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="29"/>
-        <v>2525</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="29"/>
-        <v>2361</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="29"/>
-        <v>2845</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" si="29"/>
-        <v>3198</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="29"/>
-        <v>2791</v>
-      </c>
-      <c r="K17" s="7">
-        <f t="shared" si="29"/>
-        <v>3011</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" si="29"/>
-        <v>3258</v>
-      </c>
-      <c r="M17" s="7">
-        <f t="shared" ref="M17:N17" si="30">M15-M16</f>
-        <v>3263</v>
-      </c>
-      <c r="N17" s="7">
+        <v>3342</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" ref="O17:R17" si="30">O15-O16</f>
+        <v>3280</v>
+      </c>
+      <c r="P17" s="7">
         <f t="shared" si="30"/>
-        <v>3342</v>
-      </c>
-      <c r="O17" s="7">
-        <f t="shared" ref="O17:R17" si="31">O15-O16</f>
-        <v>3416.5103999999992</v>
-      </c>
-      <c r="P17" s="7">
+        <v>3615.3804800000007</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="30"/>
+        <v>3738.8460400000004</v>
+      </c>
+      <c r="R17" s="7">
+        <f t="shared" si="30"/>
+        <v>3598.4112500000019</v>
+      </c>
+      <c r="T17" s="7">
+        <f t="shared" ref="T17:Z17" si="31">T15-T16</f>
+        <v>8118</v>
+      </c>
+      <c r="U17" s="7">
         <f t="shared" si="31"/>
-        <v>3615.3804800000007</v>
-      </c>
-      <c r="Q17" s="7">
+        <v>6411</v>
+      </c>
+      <c r="V17" s="7">
         <f t="shared" si="31"/>
-        <v>3738.8460400000004</v>
-      </c>
-      <c r="R17" s="7">
+        <v>8687</v>
+      </c>
+      <c r="W17" s="7">
         <f t="shared" si="31"/>
-        <v>3598.4112500000019</v>
-      </c>
-      <c r="T17" s="7">
-        <f t="shared" ref="T17:Z17" si="32">T15-T16</f>
-        <v>8118</v>
-      </c>
-      <c r="U17" s="7">
+        <v>9930</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" si="31"/>
+        <v>11195</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" si="31"/>
+        <v>12874</v>
+      </c>
+      <c r="Z17" s="7">
+        <f t="shared" si="31"/>
+        <v>14232.637769999998</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" ref="AA17:AJ17" si="32">AA15-AA16</f>
+        <v>16850.852171999999</v>
+      </c>
+      <c r="AB17" s="7">
         <f t="shared" si="32"/>
-        <v>6411</v>
-      </c>
-      <c r="V17" s="7">
+        <v>18222.929010719999</v>
+      </c>
+      <c r="AC17" s="7">
         <f t="shared" si="32"/>
-        <v>8687</v>
-      </c>
-      <c r="W17" s="7">
+        <v>19333.689526972801</v>
+      </c>
+      <c r="AD17" s="7">
         <f t="shared" si="32"/>
-        <v>9930</v>
-      </c>
-      <c r="X17" s="7">
+        <v>20314.490983139811</v>
+      </c>
+      <c r="AE17" s="7">
         <f t="shared" si="32"/>
-        <v>11195</v>
-      </c>
-      <c r="Y17" s="7">
+        <v>21137.855116042065</v>
+      </c>
+      <c r="AF17" s="7">
         <f t="shared" si="32"/>
-        <v>12874</v>
-      </c>
-      <c r="Z17" s="7">
+        <v>21779.378731358876</v>
+      </c>
+      <c r="AG17" s="7">
         <f t="shared" si="32"/>
-        <v>14369.14817</v>
-      </c>
-      <c r="AA17" s="7">
-        <f t="shared" ref="AA17:AJ17" si="33">AA15-AA16</f>
-        <v>16841.553170400006</v>
-      </c>
-      <c r="AB17" s="7">
-        <f t="shared" si="33"/>
-        <v>18211.010242992004</v>
-      </c>
-      <c r="AC17" s="7">
-        <f t="shared" si="33"/>
-        <v>19319.803928769124</v>
-      </c>
-      <c r="AD17" s="7">
-        <f t="shared" si="33"/>
-        <v>20298.972189678512</v>
-      </c>
-      <c r="AE17" s="7">
-        <f t="shared" si="33"/>
-        <v>21121.104066855325</v>
-      </c>
-      <c r="AF17" s="7">
-        <f t="shared" si="33"/>
-        <v>21761.856196612884</v>
-      </c>
-      <c r="AG17" s="7">
-        <f t="shared" si="33"/>
-        <v>22421.953110418195</v>
+        <v>22440.275654371912</v>
       </c>
       <c r="AH17" s="7">
-        <f t="shared" si="33"/>
-        <v>23101.977596195815</v>
+        <f t="shared" si="32"/>
+        <v>23121.129636296777</v>
       </c>
       <c r="AI17" s="7">
-        <f t="shared" si="33"/>
-        <v>23802.529974396064</v>
+        <f t="shared" si="32"/>
+        <v>23822.54199192526</v>
       </c>
       <c r="AJ17" s="7">
-        <f t="shared" si="33"/>
-        <v>24524.228624948606</v>
+        <f t="shared" si="32"/>
+        <v>24545.132127553396</v>
       </c>
       <c r="AK17" s="6">
         <f>AJ17+(AJ17*$AM$23)</f>
-        <v>24278.98633869912</v>
+        <v>24299.680806277862</v>
       </c>
       <c r="AL17" s="6">
-        <f t="shared" ref="AL17:CW17" si="34">AK17+(AK17*$AM$23)</f>
-        <v>24036.196475312128</v>
+        <f t="shared" ref="AL17:CW17" si="33">AK17+(AK17*$AM$23)</f>
+        <v>24056.683998215085</v>
       </c>
       <c r="AM17" s="6">
+        <f t="shared" si="33"/>
+        <v>23816.117158232933</v>
+      </c>
+      <c r="AN17" s="6">
+        <f t="shared" si="33"/>
+        <v>23577.955986650602</v>
+      </c>
+      <c r="AO17" s="6">
+        <f t="shared" si="33"/>
+        <v>23342.176426784095</v>
+      </c>
+      <c r="AP17" s="6">
+        <f t="shared" si="33"/>
+        <v>23108.754662516254</v>
+      </c>
+      <c r="AQ17" s="6">
+        <f t="shared" si="33"/>
+        <v>22877.66711589109</v>
+      </c>
+      <c r="AR17" s="6">
+        <f t="shared" si="33"/>
+        <v>22648.89044473218</v>
+      </c>
+      <c r="AS17" s="6">
+        <f t="shared" si="33"/>
+        <v>22422.40154028486</v>
+      </c>
+      <c r="AT17" s="6">
+        <f t="shared" si="33"/>
+        <v>22198.177524882012</v>
+      </c>
+      <c r="AU17" s="6">
+        <f t="shared" si="33"/>
+        <v>21976.195749633192</v>
+      </c>
+      <c r="AV17" s="6">
+        <f t="shared" si="33"/>
+        <v>21756.433792136861</v>
+      </c>
+      <c r="AW17" s="6">
+        <f t="shared" si="33"/>
+        <v>21538.869454215492</v>
+      </c>
+      <c r="AX17" s="6">
+        <f t="shared" si="33"/>
+        <v>21323.480759673337</v>
+      </c>
+      <c r="AY17" s="6">
+        <f t="shared" si="33"/>
+        <v>21110.245952076602</v>
+      </c>
+      <c r="AZ17" s="6">
+        <f t="shared" si="33"/>
+        <v>20899.143492555835</v>
+      </c>
+      <c r="BA17" s="6">
+        <f t="shared" si="33"/>
+        <v>20690.152057630276</v>
+      </c>
+      <c r="BB17" s="6">
+        <f t="shared" si="33"/>
+        <v>20483.250537053973</v>
+      </c>
+      <c r="BC17" s="6">
+        <f t="shared" si="33"/>
+        <v>20278.418031683432</v>
+      </c>
+      <c r="BD17" s="6">
+        <f t="shared" si="33"/>
+        <v>20075.633851366598</v>
+      </c>
+      <c r="BE17" s="6">
+        <f t="shared" si="33"/>
+        <v>19874.877512852931</v>
+      </c>
+      <c r="BF17" s="6">
+        <f t="shared" si="33"/>
+        <v>19676.128737724401</v>
+      </c>
+      <c r="BG17" s="6">
+        <f t="shared" si="33"/>
+        <v>19479.367450347156</v>
+      </c>
+      <c r="BH17" s="6">
+        <f t="shared" si="33"/>
+        <v>19284.573775843684</v>
+      </c>
+      <c r="BI17" s="6">
+        <f t="shared" si="33"/>
+        <v>19091.728038085246</v>
+      </c>
+      <c r="BJ17" s="6">
+        <f t="shared" si="33"/>
+        <v>18900.810757704392</v>
+      </c>
+      <c r="BK17" s="6">
+        <f t="shared" si="33"/>
+        <v>18711.802650127349</v>
+      </c>
+      <c r="BL17" s="6">
+        <f t="shared" si="33"/>
+        <v>18524.684623626075</v>
+      </c>
+      <c r="BM17" s="6">
+        <f t="shared" si="33"/>
+        <v>18339.437777389816</v>
+      </c>
+      <c r="BN17" s="6">
+        <f t="shared" si="33"/>
+        <v>18156.043399615919</v>
+      </c>
+      <c r="BO17" s="6">
+        <f t="shared" si="33"/>
+        <v>17974.482965619762</v>
+      </c>
+      <c r="BP17" s="6">
+        <f t="shared" si="33"/>
+        <v>17794.738135963566</v>
+      </c>
+      <c r="BQ17" s="6">
+        <f t="shared" si="33"/>
+        <v>17616.790754603931</v>
+      </c>
+      <c r="BR17" s="6">
+        <f t="shared" si="33"/>
+        <v>17440.622847057894</v>
+      </c>
+      <c r="BS17" s="6">
+        <f t="shared" si="33"/>
+        <v>17266.216618587314</v>
+      </c>
+      <c r="BT17" s="6">
+        <f t="shared" si="33"/>
+        <v>17093.55445240144</v>
+      </c>
+      <c r="BU17" s="6">
+        <f t="shared" si="33"/>
+        <v>16922.618907877426</v>
+      </c>
+      <c r="BV17" s="6">
+        <f t="shared" si="33"/>
+        <v>16753.392718798652</v>
+      </c>
+      <c r="BW17" s="6">
+        <f t="shared" si="33"/>
+        <v>16585.858791610666</v>
+      </c>
+      <c r="BX17" s="6">
+        <f t="shared" si="33"/>
+        <v>16420.000203694559</v>
+      </c>
+      <c r="BY17" s="6">
+        <f t="shared" si="33"/>
+        <v>16255.800201657614</v>
+      </c>
+      <c r="BZ17" s="6">
+        <f t="shared" si="33"/>
+        <v>16093.242199641038</v>
+      </c>
+      <c r="CA17" s="6">
+        <f t="shared" si="33"/>
+        <v>15932.309777644627</v>
+      </c>
+      <c r="CB17" s="6">
+        <f t="shared" si="33"/>
+        <v>15772.98667986818</v>
+      </c>
+      <c r="CC17" s="6">
+        <f t="shared" si="33"/>
+        <v>15615.256813069498</v>
+      </c>
+      <c r="CD17" s="6">
+        <f t="shared" si="33"/>
+        <v>15459.104244938802</v>
+      </c>
+      <c r="CE17" s="6">
+        <f t="shared" si="33"/>
+        <v>15304.513202489414</v>
+      </c>
+      <c r="CF17" s="6">
+        <f t="shared" si="33"/>
+        <v>15151.46807046452</v>
+      </c>
+      <c r="CG17" s="6">
+        <f t="shared" si="33"/>
+        <v>14999.953389759874</v>
+      </c>
+      <c r="CH17" s="6">
+        <f t="shared" si="33"/>
+        <v>14849.953855862275</v>
+      </c>
+      <c r="CI17" s="6">
+        <f t="shared" si="33"/>
+        <v>14701.454317303653</v>
+      </c>
+      <c r="CJ17" s="6">
+        <f t="shared" si="33"/>
+        <v>14554.439774130617</v>
+      </c>
+      <c r="CK17" s="6">
+        <f t="shared" si="33"/>
+        <v>14408.89537638931</v>
+      </c>
+      <c r="CL17" s="6">
+        <f t="shared" si="33"/>
+        <v>14264.806422625417</v>
+      </c>
+      <c r="CM17" s="6">
+        <f t="shared" si="33"/>
+        <v>14122.158358399163</v>
+      </c>
+      <c r="CN17" s="6">
+        <f t="shared" si="33"/>
+        <v>13980.936774815171</v>
+      </c>
+      <c r="CO17" s="6">
+        <f t="shared" si="33"/>
+        <v>13841.127407067019</v>
+      </c>
+      <c r="CP17" s="6">
+        <f t="shared" si="33"/>
+        <v>13702.716132996349</v>
+      </c>
+      <c r="CQ17" s="6">
+        <f t="shared" si="33"/>
+        <v>13565.688971666386</v>
+      </c>
+      <c r="CR17" s="6">
+        <f t="shared" si="33"/>
+        <v>13430.032081949723</v>
+      </c>
+      <c r="CS17" s="6">
+        <f t="shared" si="33"/>
+        <v>13295.731761130226</v>
+      </c>
+      <c r="CT17" s="6">
+        <f t="shared" si="33"/>
+        <v>13162.774443518923</v>
+      </c>
+      <c r="CU17" s="6">
+        <f t="shared" si="33"/>
+        <v>13031.146699083734</v>
+      </c>
+      <c r="CV17" s="6">
+        <f t="shared" si="33"/>
+        <v>12900.835232092897</v>
+      </c>
+      <c r="CW17" s="6">
+        <f t="shared" si="33"/>
+        <v>12771.826879771968</v>
+      </c>
+      <c r="CX17" s="6">
+        <f t="shared" ref="CX17:EP17" si="34">CW17+(CW17*$AM$23)</f>
+        <v>12644.108610974248</v>
+      </c>
+      <c r="CY17" s="6">
         <f t="shared" si="34"/>
-        <v>23795.834510559009</v>
-      </c>
-      <c r="AN17" s="6">
+        <v>12517.667524864506</v>
+      </c>
+      <c r="CZ17" s="6">
         <f t="shared" si="34"/>
-        <v>23557.876165453417</v>
-      </c>
-      <c r="AO17" s="6">
+        <v>12392.49084961586</v>
+      </c>
+      <c r="DA17" s="6">
         <f t="shared" si="34"/>
-        <v>23322.297403798882</v>
-      </c>
-      <c r="AP17" s="6">
+        <v>12268.565941119701</v>
+      </c>
+      <c r="DB17" s="6">
         <f t="shared" si="34"/>
-        <v>23089.074429760894</v>
-      </c>
-      <c r="AQ17" s="6">
+        <v>12145.880281708503</v>
+      </c>
+      <c r="DC17" s="6">
         <f t="shared" si="34"/>
-        <v>22858.183685463286</v>
-      </c>
-      <c r="AR17" s="6">
+        <v>12024.421478891418</v>
+      </c>
+      <c r="DD17" s="6">
         <f t="shared" si="34"/>
-        <v>22629.601848608654</v>
-      </c>
-      <c r="AS17" s="6">
+        <v>11904.177264102504</v>
+      </c>
+      <c r="DE17" s="6">
         <f t="shared" si="34"/>
-        <v>22403.305830122568</v>
-      </c>
-      <c r="AT17" s="6">
+        <v>11785.135491461479</v>
+      </c>
+      <c r="DF17" s="6">
         <f t="shared" si="34"/>
-        <v>22179.272771821343</v>
-      </c>
-      <c r="AU17" s="6">
+        <v>11667.284136546863</v>
+      </c>
+      <c r="DG17" s="6">
         <f t="shared" si="34"/>
-        <v>21957.480044103129</v>
-      </c>
-      <c r="AV17" s="6">
+        <v>11550.611295181394</v>
+      </c>
+      <c r="DH17" s="6">
         <f t="shared" si="34"/>
-        <v>21737.905243662099</v>
-      </c>
-      <c r="AW17" s="6">
+        <v>11435.105182229579</v>
+      </c>
+      <c r="DI17" s="6">
         <f t="shared" si="34"/>
-        <v>21520.526191225479</v>
-      </c>
-      <c r="AX17" s="6">
+        <v>11320.754130407284</v>
+      </c>
+      <c r="DJ17" s="6">
         <f t="shared" si="34"/>
-        <v>21305.320929313224</v>
-      </c>
-      <c r="AY17" s="6">
+        <v>11207.546589103211</v>
+      </c>
+      <c r="DK17" s="6">
         <f t="shared" si="34"/>
-        <v>21092.267720020092</v>
-      </c>
-      <c r="AZ17" s="6">
+        <v>11095.471123212179</v>
+      </c>
+      <c r="DL17" s="6">
         <f t="shared" si="34"/>
-        <v>20881.345042819892</v>
-      </c>
-      <c r="BA17" s="6">
+        <v>10984.516411980057</v>
+      </c>
+      <c r="DM17" s="6">
         <f t="shared" si="34"/>
-        <v>20672.531592391693</v>
-      </c>
-      <c r="BB17" s="6">
+        <v>10874.671247860257</v>
+      </c>
+      <c r="DN17" s="6">
         <f t="shared" si="34"/>
-        <v>20465.806276467778</v>
-      </c>
-      <c r="BC17" s="6">
+        <v>10765.924535381655</v>
+      </c>
+      <c r="DO17" s="6">
         <f t="shared" si="34"/>
-        <v>20261.148213703102</v>
-      </c>
-      <c r="BD17" s="6">
+        <v>10658.265290027839</v>
+      </c>
+      <c r="DP17" s="6">
         <f t="shared" si="34"/>
-        <v>20058.53673156607</v>
-      </c>
-      <c r="BE17" s="6">
+        <v>10551.68263712756</v>
+      </c>
+      <c r="DQ17" s="6">
         <f t="shared" si="34"/>
-        <v>19857.95136425041</v>
-      </c>
-      <c r="BF17" s="6">
+        <v>10446.165810756285</v>
+      </c>
+      <c r="DR17" s="6">
         <f t="shared" si="34"/>
-        <v>19659.371850607906</v>
-      </c>
-      <c r="BG17" s="6">
+        <v>10341.704152648723</v>
+      </c>
+      <c r="DS17" s="6">
         <f t="shared" si="34"/>
-        <v>19462.778132101826</v>
-      </c>
-      <c r="BH17" s="6">
+        <v>10238.287111122236</v>
+      </c>
+      <c r="DT17" s="6">
         <f t="shared" si="34"/>
-        <v>19268.150350780808</v>
-      </c>
-      <c r="BI17" s="6">
+        <v>10135.904240011014</v>
+      </c>
+      <c r="DU17" s="6">
         <f t="shared" si="34"/>
-        <v>19075.468847273001</v>
-      </c>
-      <c r="BJ17" s="6">
+        <v>10034.545197610903</v>
+      </c>
+      <c r="DV17" s="6">
         <f t="shared" si="34"/>
-        <v>18884.714158800271</v>
-      </c>
-      <c r="BK17" s="6">
+        <v>9934.1997456347945</v>
+      </c>
+      <c r="DW17" s="6">
         <f t="shared" si="34"/>
-        <v>18695.867017212269</v>
-      </c>
-      <c r="BL17" s="6">
+        <v>9834.8577481784469</v>
+      </c>
+      <c r="DX17" s="6">
         <f t="shared" si="34"/>
-        <v>18508.908347040146</v>
-      </c>
-      <c r="BM17" s="6">
+        <v>9736.5091706966632</v>
+      </c>
+      <c r="DY17" s="6">
         <f t="shared" si="34"/>
-        <v>18323.819263569745</v>
-      </c>
-      <c r="BN17" s="6">
+        <v>9639.1440789896969</v>
+      </c>
+      <c r="DZ17" s="6">
         <f t="shared" si="34"/>
-        <v>18140.581070934048</v>
-      </c>
-      <c r="BO17" s="6">
+        <v>9542.7526381997995</v>
+      </c>
+      <c r="EA17" s="6">
         <f t="shared" si="34"/>
-        <v>17959.175260224707</v>
-      </c>
-      <c r="BP17" s="6">
+        <v>9447.3251118178014</v>
+      </c>
+      <c r="EB17" s="6">
         <f t="shared" si="34"/>
-        <v>17779.583507622461</v>
-      </c>
-      <c r="BQ17" s="6">
+        <v>9352.851860699624</v>
+      </c>
+      <c r="EC17" s="6">
         <f t="shared" si="34"/>
-        <v>17601.787672546237</v>
-      </c>
-      <c r="BR17" s="6">
+        <v>9259.3233420926281</v>
+      </c>
+      <c r="ED17" s="6">
         <f t="shared" si="34"/>
-        <v>17425.769795820775</v>
-      </c>
-      <c r="BS17" s="6">
+        <v>9166.7301086717016</v>
+      </c>
+      <c r="EE17" s="6">
         <f t="shared" si="34"/>
-        <v>17251.512097862567</v>
-      </c>
-      <c r="BT17" s="6">
+        <v>9075.0628075849854</v>
+      </c>
+      <c r="EF17" s="6">
         <f t="shared" si="34"/>
-        <v>17078.99697688394</v>
-      </c>
-      <c r="BU17" s="6">
+        <v>8984.3121795091356</v>
+      </c>
+      <c r="EG17" s="6">
         <f t="shared" si="34"/>
-        <v>16908.207007115099</v>
-      </c>
-      <c r="BV17" s="6">
+        <v>8894.4690577140445</v>
+      </c>
+      <c r="EH17" s="6">
         <f t="shared" si="34"/>
-        <v>16739.124937043947</v>
-      </c>
-      <c r="BW17" s="6">
+        <v>8805.5243671369044</v>
+      </c>
+      <c r="EI17" s="6">
         <f t="shared" si="34"/>
-        <v>16571.733687673506</v>
-      </c>
-      <c r="BX17" s="6">
+        <v>8717.4691234655347</v>
+      </c>
+      <c r="EJ17" s="6">
         <f t="shared" si="34"/>
-        <v>16406.01635079677</v>
-      </c>
-      <c r="BY17" s="6">
+        <v>8630.2944322308795</v>
+      </c>
+      <c r="EK17" s="6">
         <f t="shared" si="34"/>
-        <v>16241.956187288803</v>
-      </c>
-      <c r="BZ17" s="6">
+        <v>8543.99148790857</v>
+      </c>
+      <c r="EL17" s="6">
         <f t="shared" si="34"/>
-        <v>16079.536625415914</v>
-      </c>
-      <c r="CA17" s="6">
+        <v>8458.5515730294846</v>
+      </c>
+      <c r="EM17" s="6">
         <f t="shared" si="34"/>
-        <v>15918.741259161756</v>
-      </c>
-      <c r="CB17" s="6">
+        <v>8373.9660572991907</v>
+      </c>
+      <c r="EN17" s="6">
         <f t="shared" si="34"/>
-        <v>15759.553846570137</v>
-      </c>
-      <c r="CC17" s="6">
+        <v>8290.2263967261988</v>
+      </c>
+      <c r="EO17" s="6">
         <f t="shared" si="34"/>
-        <v>15601.958308104437</v>
-      </c>
-      <c r="CD17" s="6">
+        <v>8207.3241327589367</v>
+      </c>
+      <c r="EP17" s="6">
         <f t="shared" si="34"/>
-        <v>15445.938725023392</v>
-      </c>
-      <c r="CE17" s="6">
-        <f t="shared" si="34"/>
-        <v>15291.479337773158</v>
-      </c>
-      <c r="CF17" s="6">
-        <f t="shared" si="34"/>
-        <v>15138.564544395427</v>
-      </c>
-      <c r="CG17" s="6">
-        <f t="shared" si="34"/>
-        <v>14987.178898951473</v>
-      </c>
-      <c r="CH17" s="6">
-        <f t="shared" si="34"/>
-        <v>14837.307109961959</v>
-      </c>
-      <c r="CI17" s="6">
-        <f t="shared" si="34"/>
-        <v>14688.93403886234</v>
-      </c>
-      <c r="CJ17" s="6">
-        <f t="shared" si="34"/>
-        <v>14542.044698473717</v>
-      </c>
-      <c r="CK17" s="6">
-        <f t="shared" si="34"/>
-        <v>14396.62425148898</v>
-      </c>
-      <c r="CL17" s="6">
-        <f t="shared" si="34"/>
-        <v>14252.658008974091</v>
-      </c>
-      <c r="CM17" s="6">
-        <f t="shared" si="34"/>
-        <v>14110.13142888435</v>
-      </c>
-      <c r="CN17" s="6">
-        <f t="shared" si="34"/>
-        <v>13969.030114595505</v>
-      </c>
-      <c r="CO17" s="6">
-        <f t="shared" si="34"/>
-        <v>13829.339813449551</v>
-      </c>
-      <c r="CP17" s="6">
-        <f t="shared" si="34"/>
-        <v>13691.046415315055</v>
-      </c>
-      <c r="CQ17" s="6">
-        <f t="shared" si="34"/>
-        <v>13554.135951161905</v>
-      </c>
-      <c r="CR17" s="6">
-        <f t="shared" si="34"/>
-        <v>13418.594591650286</v>
-      </c>
-      <c r="CS17" s="6">
-        <f t="shared" si="34"/>
-        <v>13284.408645733783</v>
-      </c>
-      <c r="CT17" s="6">
-        <f t="shared" si="34"/>
-        <v>13151.564559276445</v>
-      </c>
-      <c r="CU17" s="6">
-        <f t="shared" si="34"/>
-        <v>13020.04891368368</v>
-      </c>
-      <c r="CV17" s="6">
-        <f t="shared" si="34"/>
-        <v>12889.848424546844</v>
-      </c>
-      <c r="CW17" s="6">
-        <f t="shared" si="34"/>
-        <v>12760.949940301376</v>
-      </c>
-      <c r="CX17" s="6">
-        <f t="shared" ref="CX17:EP17" si="35">CW17+(CW17*$AM$23)</f>
-        <v>12633.340440898362</v>
-      </c>
-      <c r="CY17" s="6">
-        <f t="shared" si="35"/>
-        <v>12507.007036489378</v>
-      </c>
-      <c r="CZ17" s="6">
-        <f t="shared" si="35"/>
-        <v>12381.936966124484</v>
-      </c>
-      <c r="DA17" s="6">
-        <f t="shared" si="35"/>
-        <v>12258.117596463238</v>
-      </c>
-      <c r="DB17" s="6">
-        <f t="shared" si="35"/>
-        <v>12135.536420498605</v>
-      </c>
-      <c r="DC17" s="6">
-        <f t="shared" si="35"/>
-        <v>12014.181056293619</v>
-      </c>
-      <c r="DD17" s="6">
-        <f t="shared" si="35"/>
-        <v>11894.039245730683</v>
-      </c>
-      <c r="DE17" s="6">
-        <f t="shared" si="35"/>
-        <v>11775.098853273375</v>
-      </c>
-      <c r="DF17" s="6">
-        <f t="shared" si="35"/>
-        <v>11657.347864740641</v>
-      </c>
-      <c r="DG17" s="6">
-        <f t="shared" si="35"/>
-        <v>11540.774386093235</v>
-      </c>
-      <c r="DH17" s="6">
-        <f t="shared" si="35"/>
-        <v>11425.366642232302</v>
-      </c>
-      <c r="DI17" s="6">
-        <f t="shared" si="35"/>
-        <v>11311.11297580998</v>
-      </c>
-      <c r="DJ17" s="6">
-        <f t="shared" si="35"/>
-        <v>11198.00184605188</v>
-      </c>
-      <c r="DK17" s="6">
-        <f t="shared" si="35"/>
-        <v>11086.021827591361</v>
-      </c>
-      <c r="DL17" s="6">
-        <f t="shared" si="35"/>
-        <v>10975.161609315448</v>
-      </c>
-      <c r="DM17" s="6">
-        <f t="shared" si="35"/>
-        <v>10865.409993222294</v>
-      </c>
-      <c r="DN17" s="6">
-        <f t="shared" si="35"/>
-        <v>10756.755893290072</v>
-      </c>
-      <c r="DO17" s="6">
-        <f t="shared" si="35"/>
-        <v>10649.188334357172</v>
-      </c>
-      <c r="DP17" s="6">
-        <f t="shared" si="35"/>
-        <v>10542.6964510136</v>
-      </c>
-      <c r="DQ17" s="6">
-        <f t="shared" si="35"/>
-        <v>10437.269486503465</v>
-      </c>
-      <c r="DR17" s="6">
-        <f t="shared" si="35"/>
-        <v>10332.89679163843</v>
-      </c>
-      <c r="DS17" s="6">
-        <f t="shared" si="35"/>
-        <v>10229.567823722045</v>
-      </c>
-      <c r="DT17" s="6">
-        <f t="shared" si="35"/>
-        <v>10127.272145484825</v>
-      </c>
-      <c r="DU17" s="6">
-        <f t="shared" si="35"/>
-        <v>10025.999424029977</v>
-      </c>
-      <c r="DV17" s="6">
-        <f t="shared" si="35"/>
-        <v>9925.7394297896772</v>
-      </c>
-      <c r="DW17" s="6">
-        <f t="shared" si="35"/>
-        <v>9826.4820354917811</v>
-      </c>
-      <c r="DX17" s="6">
-        <f t="shared" si="35"/>
-        <v>9728.2172151368632</v>
-      </c>
-      <c r="DY17" s="6">
-        <f t="shared" si="35"/>
-        <v>9630.9350429854949</v>
-      </c>
-      <c r="DZ17" s="6">
-        <f t="shared" si="35"/>
-        <v>9534.625692555639</v>
-      </c>
-      <c r="EA17" s="6">
-        <f t="shared" si="35"/>
-        <v>9439.2794356300819</v>
-      </c>
-      <c r="EB17" s="6">
-        <f t="shared" si="35"/>
-        <v>9344.8866412737807</v>
-      </c>
-      <c r="EC17" s="6">
-        <f t="shared" si="35"/>
-        <v>9251.4377748610423</v>
-      </c>
-      <c r="ED17" s="6">
-        <f t="shared" si="35"/>
-        <v>9158.9233971124322</v>
-      </c>
-      <c r="EE17" s="6">
-        <f t="shared" si="35"/>
-        <v>9067.3341631413077</v>
-      </c>
-      <c r="EF17" s="6">
-        <f t="shared" si="35"/>
-        <v>8976.660821509895</v>
-      </c>
-      <c r="EG17" s="6">
-        <f t="shared" si="35"/>
-        <v>8886.8942132947959</v>
-      </c>
-      <c r="EH17" s="6">
-        <f t="shared" si="35"/>
-        <v>8798.0252711618487</v>
-      </c>
-      <c r="EI17" s="6">
-        <f t="shared" si="35"/>
-        <v>8710.0450184502297</v>
-      </c>
-      <c r="EJ17" s="6">
-        <f t="shared" si="35"/>
-        <v>8622.9445682657279</v>
-      </c>
-      <c r="EK17" s="6">
-        <f t="shared" si="35"/>
-        <v>8536.7151225830712</v>
-      </c>
-      <c r="EL17" s="6">
-        <f t="shared" si="35"/>
-        <v>8451.3479713572397</v>
-      </c>
-      <c r="EM17" s="6">
-        <f t="shared" si="35"/>
-        <v>8366.8344916436672</v>
-      </c>
-      <c r="EN17" s="6">
-        <f t="shared" si="35"/>
-        <v>8283.1661467272297</v>
-      </c>
-      <c r="EO17" s="6">
-        <f t="shared" si="35"/>
-        <v>8200.3344852599566</v>
-      </c>
-      <c r="EP17" s="6">
-        <f t="shared" si="35"/>
-        <v>8118.3311404073575</v>
+        <v>8125.2508914313476</v>
       </c>
     </row>
     <row r="18" spans="1:146" x14ac:dyDescent="0.3">
@@ -3242,43 +3234,43 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ref="C18:L18" si="36">922.5+7.1</f>
+        <f t="shared" ref="C18:L18" si="35">922.5+7.1</f>
         <v>929.6</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>929.6</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>929.6</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>929.6</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>929.6</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>929.6</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>929.6</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>929.6</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>929.6</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>929.6</v>
       </c>
       <c r="M18" s="1">
@@ -3290,88 +3282,88 @@
         <v>911.69999999999993</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" ref="O18:R18" si="37">904.9+6.8</f>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
+      </c>
+      <c r="P18" s="1">
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
+      </c>
+      <c r="R18" s="1">
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" ref="T18:X18" si="36">922.5+7.1</f>
+        <v>929.6</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="36"/>
+        <v>929.6</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="36"/>
+        <v>929.6</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="36"/>
+        <v>929.6</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="36"/>
+        <v>929.6</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" ref="Y18:AJ18" si="37">904.9+6.8</f>
         <v>911.69999999999993</v>
       </c>
-      <c r="P18" s="1">
-        <f t="shared" si="37"/>
-        <v>911.69999999999993</v>
-      </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="37"/>
-        <v>911.69999999999993</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="37"/>
-        <v>911.69999999999993</v>
-      </c>
-      <c r="T18" s="1">
-        <f t="shared" ref="T18:X18" si="38">922.5+7.1</f>
-        <v>929.6</v>
-      </c>
-      <c r="U18" s="1">
-        <f t="shared" si="38"/>
-        <v>929.6</v>
-      </c>
-      <c r="V18" s="1">
-        <f t="shared" si="38"/>
-        <v>929.6</v>
-      </c>
-      <c r="W18" s="1">
-        <f t="shared" si="38"/>
-        <v>929.6</v>
-      </c>
-      <c r="X18" s="1">
-        <f t="shared" si="38"/>
-        <v>929.6</v>
-      </c>
-      <c r="Y18" s="1">
-        <f t="shared" ref="Y18:AJ18" si="39">904.9+6.8</f>
-        <v>911.69999999999993</v>
-      </c>
       <c r="Z18" s="1">
-        <f t="shared" si="39"/>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" si="39"/>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" si="39"/>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
       <c r="AC18" s="1">
-        <f t="shared" si="39"/>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" si="39"/>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="39"/>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="39"/>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="39"/>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="39"/>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="39"/>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="39"/>
-        <v>911.69999999999993</v>
+        <f>901.3+6.8</f>
+        <v>908.09999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:146" x14ac:dyDescent="0.3">
@@ -3379,136 +3371,136 @@
         <v>23</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ref="C19:L19" si="40">C17/C18</f>
+        <f t="shared" ref="C19:L19" si="38">C17/C18</f>
         <v>2.830249569707401</v>
       </c>
       <c r="D19" s="5">
+        <f t="shared" si="38"/>
+        <v>2.447289156626506</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="38"/>
+        <v>2.6882530120481927</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="38"/>
+        <v>2.7162220309810672</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="38"/>
+        <v>2.5398020654044751</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="38"/>
+        <v>3.060456110154905</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="38"/>
+        <v>3.4401893287435454</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="38"/>
+        <v>3.0023666092943202</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="38"/>
+        <v>3.2390275387263339</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="38"/>
+        <v>3.5047332185886404</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" ref="M19:N19" si="39">M17/M18</f>
+        <v>3.554853469876893</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="39"/>
+        <v>3.6656794998354725</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" ref="O19:R19" si="40">O17/O18</f>
+        <v>3.6119370113423637</v>
+      </c>
+      <c r="P19" s="5">
         <f t="shared" si="40"/>
-        <v>2.447289156626506</v>
-      </c>
-      <c r="E19" s="5">
+        <v>3.9812580993282691</v>
+      </c>
+      <c r="Q19" s="5">
         <f t="shared" si="40"/>
-        <v>2.6882530120481927</v>
-      </c>
-      <c r="F19" s="5">
+        <v>4.117218412069156</v>
+      </c>
+      <c r="R19" s="5">
         <f t="shared" si="40"/>
-        <v>2.7162220309810672</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="40"/>
-        <v>2.5398020654044751</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="40"/>
-        <v>3.060456110154905</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="40"/>
-        <v>3.4401893287435454</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="40"/>
-        <v>3.0023666092943202</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="40"/>
-        <v>3.2390275387263339</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="40"/>
-        <v>3.5047332185886404</v>
-      </c>
-      <c r="M19" s="5">
-        <f t="shared" ref="M19:N19" si="41">M17/M18</f>
-        <v>3.554853469876893</v>
-      </c>
-      <c r="N19" s="5">
+        <v>3.9625715780200443</v>
+      </c>
+      <c r="T19" s="5">
+        <f t="shared" ref="T19:Z19" si="41">T17/T18</f>
+        <v>8.7327882960413081</v>
+      </c>
+      <c r="U19" s="5">
         <f t="shared" si="41"/>
-        <v>3.6656794998354725</v>
-      </c>
-      <c r="O19" s="5">
-        <f t="shared" ref="O19:R19" si="42">O17/O18</f>
-        <v>3.7474063836788409</v>
-      </c>
-      <c r="P19" s="5">
+        <v>6.8965146299483644</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="41"/>
+        <v>9.3448795180722897</v>
+      </c>
+      <c r="W19" s="5">
+        <f t="shared" si="41"/>
+        <v>10.682013769363166</v>
+      </c>
+      <c r="X19" s="5">
+        <f t="shared" si="41"/>
+        <v>12.042814113597245</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" si="41"/>
+        <v>14.120873094219592</v>
+      </c>
+      <c r="Z19" s="5">
+        <f t="shared" si="41"/>
+        <v>15.672985100759828</v>
+      </c>
+      <c r="AA19" s="5">
+        <f t="shared" ref="AA19:AJ19" si="42">AA17/AA18</f>
+        <v>18.556163607532209</v>
+      </c>
+      <c r="AB19" s="5">
         <f t="shared" si="42"/>
-        <v>3.965537435559944</v>
-      </c>
-      <c r="Q19" s="5">
+        <v>20.067095045391479</v>
+      </c>
+      <c r="AC19" s="5">
         <f t="shared" si="42"/>
-        <v>4.1009608862564448</v>
-      </c>
-      <c r="R19" s="5">
+        <v>21.290264868376614</v>
+      </c>
+      <c r="AD19" s="5">
         <f t="shared" si="42"/>
-        <v>3.946924701107823</v>
-      </c>
-      <c r="T19" s="5">
-        <f t="shared" ref="T19:Z19" si="43">T17/T18</f>
-        <v>8.7327882960413081</v>
-      </c>
-      <c r="U19" s="5">
-        <f t="shared" si="43"/>
-        <v>6.8965146299483644</v>
-      </c>
-      <c r="V19" s="5">
-        <f t="shared" si="43"/>
-        <v>9.3448795180722897</v>
-      </c>
-      <c r="W19" s="5">
-        <f t="shared" si="43"/>
-        <v>10.682013769363166</v>
-      </c>
-      <c r="X19" s="5">
-        <f t="shared" si="43"/>
-        <v>12.042814113597245</v>
-      </c>
-      <c r="Y19" s="5">
-        <f t="shared" si="43"/>
-        <v>14.120873094219592</v>
-      </c>
-      <c r="Z19" s="5">
-        <f t="shared" si="43"/>
-        <v>15.760829406603051</v>
-      </c>
-      <c r="AA19" s="5">
-        <f t="shared" ref="AA19:AJ19" si="44">AA17/AA18</f>
-        <v>18.472691861796651</v>
-      </c>
-      <c r="AB19" s="5">
-        <f t="shared" si="44"/>
-        <v>19.974783638249431</v>
-      </c>
-      <c r="AC19" s="5">
-        <f t="shared" si="44"/>
-        <v>21.190966248512808</v>
-      </c>
-      <c r="AD19" s="5">
-        <f t="shared" si="44"/>
-        <v>22.264968947766278</v>
+        <v>22.370323734324206</v>
       </c>
       <c r="AE19" s="5">
-        <f t="shared" si="44"/>
-        <v>23.16672597000694</v>
+        <f t="shared" si="42"/>
+        <v>23.277012571349044</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" si="44"/>
-        <v>23.869536247244582</v>
+        <f t="shared" si="42"/>
+        <v>23.983458574340798</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" si="44"/>
-        <v>24.593564890225071</v>
+        <f t="shared" si="42"/>
+        <v>24.711238469741122</v>
       </c>
       <c r="AH19" s="5">
-        <f t="shared" si="44"/>
-        <v>25.339451131069229</v>
+        <f t="shared" si="42"/>
+        <v>25.460995084568637</v>
       </c>
       <c r="AI19" s="5">
-        <f t="shared" si="44"/>
-        <v>26.107853432484443</v>
+        <f t="shared" si="42"/>
+        <v>26.233390586857464</v>
       </c>
       <c r="AJ19" s="5">
-        <f t="shared" si="44"/>
-        <v>26.899450065754753</v>
+        <f t="shared" si="42"/>
+        <v>27.029107067011779</v>
       </c>
     </row>
     <row r="21" spans="1:146" x14ac:dyDescent="0.3">
@@ -3524,47 +3516,47 @@
         <v>0.11244435842848843</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" ref="H21:N21" si="45">H3/D3-1</f>
+        <f t="shared" ref="H21:N21" si="43">H3/D3-1</f>
         <v>0.14044024013098055</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0.13498957609451012</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0.12566615093690903</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0.10438413361169108</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0.11038443132876052</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0.1279657125363538</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0.14370800244349424</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" ref="O21" si="46">O3/K3-1</f>
-        <v>0.12999999999999989</v>
+        <f t="shared" ref="O21" si="44">O3/K3-1</f>
+        <v>0.14209199747952117</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" ref="P21" si="47">P3/L3-1</f>
+        <f t="shared" ref="P21" si="45">P3/L3-1</f>
         <v>0.12000000000000011</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" ref="Q21" si="48">Q3/M3-1</f>
+        <f t="shared" ref="Q21" si="46">Q3/M3-1</f>
         <v>0.12000000000000011</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" ref="R21" si="49">R3/N3-1</f>
+        <f t="shared" ref="R21" si="47">R3/N3-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="T21" s="8"/>
@@ -3573,63 +3565,63 @@
         <v>-9.3703725641177571E-2</v>
       </c>
       <c r="V21" s="8">
-        <f t="shared" ref="V21:AJ21" si="50">V3/U3-1</f>
+        <f t="shared" ref="V21:AJ21" si="48">V3/U3-1</f>
         <v>0.23416770145742105</v>
       </c>
       <c r="W21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>0.17755772082185972</v>
       </c>
       <c r="X21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>0.1286594414714215</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>0.12228065981353087</v>
       </c>
       <c r="Z21" s="8">
-        <f t="shared" si="50"/>
-        <v>0.11693613093336186</v>
+        <f t="shared" si="48"/>
+        <v>0.11966130578336354</v>
       </c>
       <c r="AA21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AB21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="AC21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="AD21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AE21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AF21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AG21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AH21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AI21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AJ21" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -3638,19 +3630,19 @@
         <v>39</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:F22" si="51">C5/C3</f>
+        <f t="shared" ref="C22:F22" si="49">C5/C3</f>
         <v>0.64311979872266301</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>0.64580680371111521</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>0.64054899235580265</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>0.61870379920921437</v>
       </c>
       <c r="G22" s="8">
@@ -3658,115 +3650,115 @@
         <v>0.64457202505219202</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" ref="H22:N22" si="52">H5/H3</f>
+        <f t="shared" ref="H22:N22" si="50">H5/H3</f>
         <v>0.64906683681607913</v>
       </c>
       <c r="I22" s="8">
+        <f t="shared" si="50"/>
+        <v>0.65023725700290835</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="50"/>
+        <v>0.63362858888210138</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="50"/>
+        <v>0.63988657844990549</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="50"/>
+        <v>0.65263611550064649</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="50"/>
+        <v>0.62762925770118061</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="50"/>
+        <v>0.63346241153692084</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" ref="O22:R22" si="51">O5/O3</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="51"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="51"/>
+        <v>0.63</v>
+      </c>
+      <c r="R22" s="8">
+        <f t="shared" si="51"/>
+        <v>0.63</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" ref="T22:AJ22" si="52">T5/T3</f>
+        <v>0.65865071373571049</v>
+      </c>
+      <c r="U22" s="8">
         <f t="shared" si="52"/>
-        <v>0.65023725700290835</v>
-      </c>
-      <c r="J22" s="8">
+        <v>0.61375073524606238</v>
+      </c>
+      <c r="V22" s="8">
         <f t="shared" si="52"/>
-        <v>0.63362858888210138</v>
-      </c>
-      <c r="K22" s="8">
+        <v>0.62470874814657906</v>
+      </c>
+      <c r="W22" s="8">
         <f t="shared" si="52"/>
-        <v>0.63988657844990549</v>
-      </c>
-      <c r="L22" s="8">
+        <v>0.63673157350362009</v>
+      </c>
+      <c r="X22" s="8">
         <f t="shared" si="52"/>
-        <v>0.65263611550064649</v>
-      </c>
-      <c r="M22" s="8">
+        <v>0.64431428799107504</v>
+      </c>
+      <c r="Y22" s="8">
         <f t="shared" si="52"/>
-        <v>0.62762925770118061</v>
-      </c>
-      <c r="N22" s="8">
+        <v>0.63812262576774237</v>
+      </c>
+      <c r="Z22" s="8">
         <f t="shared" si="52"/>
-        <v>0.63346241153692084</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" ref="O22:R22" si="53">O5/O3</f>
+        <v>0.63752955053507721</v>
+      </c>
+      <c r="AA22" s="8">
+        <f t="shared" si="52"/>
         <v>0.64</v>
       </c>
-      <c r="P22" s="8">
-        <f t="shared" si="53"/>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="Q22" s="8">
-        <f t="shared" si="53"/>
-        <v>0.63</v>
-      </c>
-      <c r="R22" s="8">
-        <f t="shared" si="53"/>
-        <v>0.63</v>
-      </c>
-      <c r="T22" s="8">
-        <f t="shared" ref="T22:AJ22" si="54">T5/T3</f>
-        <v>0.65865071373571049</v>
-      </c>
-      <c r="U22" s="8">
-        <f t="shared" si="54"/>
-        <v>0.61375073524606238</v>
-      </c>
-      <c r="V22" s="8">
-        <f t="shared" si="54"/>
-        <v>0.62470874814657906</v>
-      </c>
-      <c r="W22" s="8">
-        <f t="shared" si="54"/>
-        <v>0.63673157350362009</v>
-      </c>
-      <c r="X22" s="8">
-        <f t="shared" si="54"/>
-        <v>0.64431428799107504</v>
-      </c>
-      <c r="Y22" s="8">
-        <f t="shared" si="54"/>
-        <v>0.63812262576774237</v>
-      </c>
-      <c r="Z22" s="8">
-        <f t="shared" si="54"/>
-        <v>0.6347581716132551</v>
-      </c>
-      <c r="AA22" s="8">
-        <f t="shared" si="54"/>
+      <c r="AB22" s="8">
+        <f t="shared" si="52"/>
         <v>0.64</v>
       </c>
-      <c r="AB22" s="8">
-        <f t="shared" si="54"/>
+      <c r="AC22" s="8">
+        <f t="shared" si="52"/>
         <v>0.64</v>
       </c>
-      <c r="AC22" s="8">
-        <f t="shared" si="54"/>
+      <c r="AD22" s="8">
+        <f t="shared" si="52"/>
         <v>0.64</v>
       </c>
-      <c r="AD22" s="8">
-        <f t="shared" si="54"/>
+      <c r="AE22" s="8">
+        <f t="shared" si="52"/>
         <v>0.64</v>
       </c>
-      <c r="AE22" s="8">
-        <f t="shared" si="54"/>
+      <c r="AF22" s="8">
+        <f t="shared" si="52"/>
         <v>0.64</v>
       </c>
-      <c r="AF22" s="8">
-        <f t="shared" si="54"/>
+      <c r="AG22" s="8">
+        <f t="shared" si="52"/>
         <v>0.64</v>
       </c>
-      <c r="AG22" s="8">
-        <f t="shared" si="54"/>
+      <c r="AH22" s="8">
+        <f t="shared" si="52"/>
         <v>0.64</v>
       </c>
-      <c r="AH22" s="8">
-        <f t="shared" si="54"/>
+      <c r="AI22" s="8">
+        <f t="shared" si="52"/>
         <v>0.64</v>
       </c>
-      <c r="AI22" s="8">
-        <f t="shared" si="54"/>
-        <v>0.64</v>
-      </c>
       <c r="AJ22" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>0.64</v>
       </c>
     </row>
@@ -3775,19 +3767,19 @@
         <v>40</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:F23" si="55">C6/C3</f>
+        <f t="shared" ref="C23:F23" si="53">C6/C3</f>
         <v>3.5029998064640994E-2</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>3.8202655994178644E-2</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>3.1619179986101462E-2</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>3.7132542547705004E-2</v>
       </c>
       <c r="G23" s="8">
@@ -3795,115 +3787,115 @@
         <v>2.9053583855254E-2</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" ref="H23:N23" si="56">H6/H3</f>
+        <f t="shared" ref="H23:N23" si="54">H6/H3</f>
         <v>3.2062529909076411E-2</v>
       </c>
       <c r="I23" s="8">
+        <f t="shared" si="54"/>
+        <v>2.9542323587938159E-2</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="54"/>
+        <v>4.0317654245571169E-2</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="54"/>
+        <v>1.8273471959672338E-2</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="54"/>
+        <v>2.6432983766700186E-2</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="54"/>
+        <v>2.9854797123083185E-2</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="54"/>
+        <v>3.9391106956870078E-2</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" ref="O23:R23" si="55">O6/O3</f>
+        <v>2.0965517241379312E-2</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="55"/>
+        <v>0.03</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="55"/>
+        <v>0.03</v>
+      </c>
+      <c r="R23" s="8">
+        <f t="shared" si="55"/>
+        <v>0.04</v>
+      </c>
+      <c r="T23" s="8">
+        <f t="shared" ref="T23:AJ23" si="56">T6/T3</f>
+        <v>5.5321921459456261E-2</v>
+      </c>
+      <c r="U23" s="8">
         <f t="shared" si="56"/>
-        <v>2.9542323587938159E-2</v>
-      </c>
-      <c r="J23" s="8">
+        <v>4.2938370041173776E-2</v>
+      </c>
+      <c r="V23" s="8">
         <f t="shared" si="56"/>
-        <v>4.0317654245571169E-2</v>
-      </c>
-      <c r="K23" s="8">
+        <v>4.7394619783944082E-2</v>
+      </c>
+      <c r="W23" s="8">
         <f t="shared" si="56"/>
-        <v>1.8273471959672338E-2</v>
-      </c>
-      <c r="L23" s="8">
+        <v>3.5481404865764267E-2</v>
+      </c>
+      <c r="X23" s="8">
         <f t="shared" si="56"/>
-        <v>2.6432983766700186E-2</v>
-      </c>
-      <c r="M23" s="8">
+        <v>3.2871145111164235E-2</v>
+      </c>
+      <c r="Y23" s="8">
         <f t="shared" si="56"/>
-        <v>2.9854797123083185E-2</v>
-      </c>
-      <c r="N23" s="8">
+        <v>2.893456882167075E-2</v>
+      </c>
+      <c r="Z23" s="8">
         <f t="shared" si="56"/>
-        <v>3.9391106956870078E-2</v>
-      </c>
-      <c r="O23" s="8">
-        <f t="shared" ref="O23:R23" si="57">O6/O3</f>
-        <v>0.02</v>
-      </c>
-      <c r="P23" s="8">
-        <f t="shared" si="57"/>
+        <v>3.0535204122076894E-2</v>
+      </c>
+      <c r="AA23" s="8">
+        <f t="shared" si="56"/>
         <v>0.03</v>
       </c>
-      <c r="Q23" s="8">
-        <f t="shared" si="57"/>
+      <c r="AB23" s="8">
+        <f t="shared" si="56"/>
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="AC23" s="8">
+        <f t="shared" si="56"/>
         <v>0.03</v>
       </c>
-      <c r="R23" s="8">
-        <f t="shared" si="57"/>
-        <v>0.04</v>
-      </c>
-      <c r="T23" s="8">
-        <f t="shared" ref="T23:AJ23" si="58">T6/T3</f>
-        <v>5.5321921459456261E-2</v>
-      </c>
-      <c r="U23" s="8">
-        <f t="shared" si="58"/>
-        <v>4.2938370041173776E-2</v>
-      </c>
-      <c r="V23" s="8">
-        <f t="shared" si="58"/>
-        <v>4.7394619783944082E-2</v>
-      </c>
-      <c r="W23" s="8">
-        <f t="shared" si="58"/>
-        <v>3.5481404865764267E-2</v>
-      </c>
-      <c r="X23" s="8">
-        <f t="shared" si="58"/>
-        <v>3.2871145111164235E-2</v>
-      </c>
-      <c r="Y23" s="8">
-        <f t="shared" si="58"/>
-        <v>2.893456882167075E-2</v>
-      </c>
-      <c r="Z23" s="8">
-        <f t="shared" si="58"/>
-        <v>3.0338409077472428E-2</v>
-      </c>
-      <c r="AA23" s="8">
-        <f t="shared" si="58"/>
+      <c r="AD23" s="8">
+        <f t="shared" si="56"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="AE23" s="8">
+        <f t="shared" si="56"/>
         <v>2.9999999999999995E-2</v>
       </c>
-      <c r="AB23" s="8">
-        <f t="shared" si="58"/>
+      <c r="AF23" s="8">
+        <f t="shared" si="56"/>
         <v>0.03</v>
       </c>
-      <c r="AC23" s="8">
-        <f t="shared" si="58"/>
+      <c r="AG23" s="8">
+        <f t="shared" si="56"/>
         <v>0.03</v>
       </c>
-      <c r="AD23" s="8">
-        <f t="shared" si="58"/>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="AE23" s="8">
-        <f t="shared" si="58"/>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="AF23" s="8">
-        <f t="shared" si="58"/>
+      <c r="AH23" s="8">
+        <f t="shared" si="56"/>
         <v>0.03</v>
       </c>
-      <c r="AG23" s="8">
-        <f t="shared" si="58"/>
+      <c r="AI23" s="8">
+        <f t="shared" si="56"/>
         <v>0.03</v>
       </c>
-      <c r="AH23" s="8">
-        <f t="shared" si="58"/>
-        <v>0.03</v>
-      </c>
-      <c r="AI23" s="8">
-        <f t="shared" si="58"/>
-        <v>0.03</v>
-      </c>
       <c r="AJ23" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>0.03</v>
       </c>
       <c r="AL23" t="s">
@@ -3926,47 +3918,47 @@
         <v>-5.2083333333333703E-3</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" ref="H24:N24" si="59">H7/D7-1</f>
+        <f t="shared" ref="H24:N24" si="57">H7/D7-1</f>
         <v>1.5873015873015817E-2</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0.14054054054054044</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0.11413043478260865</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0.13089005235602102</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0.171875</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>6.6350710900473953E-2</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0.12682926829268282</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" ref="O24" si="60">O7/K7-1</f>
+        <f t="shared" ref="O24" si="58">O7/K7-1</f>
+        <v>0.27314814814814814</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" ref="P24" si="59">P7/L7-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P24" s="8">
-        <f t="shared" ref="P24" si="61">P7/L7-1</f>
+      <c r="Q24" s="8">
+        <f t="shared" ref="Q24" si="60">Q7/M7-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q24" s="8">
-        <f t="shared" ref="Q24" si="62">Q7/M7-1</f>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="R24" s="8">
-        <f t="shared" ref="R24" si="63">R7/N7-1</f>
+        <f t="shared" ref="R24" si="61">R7/N7-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="T24" s="8"/>
@@ -3975,63 +3967,63 @@
         <v>0.11111111111111116</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" ref="V24:AJ24" si="64">V7/U7-1</f>
+        <f t="shared" ref="V24:AJ24" si="62">V7/U7-1</f>
         <v>0.25172413793103443</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>3.3057851239669311E-2</v>
       </c>
       <c r="X24" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>6.5333333333333243E-2</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0.12265331664580725</v>
       </c>
       <c r="Z24" s="8">
-        <f t="shared" si="64"/>
-        <v>9.4849498327759241E-2</v>
+        <f t="shared" si="62"/>
+        <v>0.13654403567447049</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>-1</v>
       </c>
       <c r="AB24" s="8" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC24" s="8" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD24" s="8" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE24" s="8" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF24" s="8" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG24" s="8" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH24" s="8" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI24" s="8" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ24" s="8" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24" t="s">
@@ -4046,19 +4038,19 @@
         <v>42</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" ref="C25:F25" si="65">C8/C3</f>
+        <f t="shared" ref="C25:F25" si="63">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>2.4195015462979808E-2</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>3.6136205698401667E-2</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>2.5786487880350697E-3</v>
       </c>
       <c r="G25" s="8">
@@ -4066,115 +4058,115 @@
         <v>3.6708420320111346E-2</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" ref="H25:N25" si="66">H8/H3</f>
+        <f t="shared" ref="H25:N25" si="64">H8/H3</f>
         <v>3.1903014834901897E-3</v>
       </c>
       <c r="I25" s="8">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="64"/>
+        <v>4.7037263286499695E-2</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="64"/>
+        <v>1.9848771266540641E-2</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="64"/>
+        <v>1.4078437006177273E-2</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="64"/>
+        <v>2.388383769846655E-2</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="64"/>
+        <v>3.7388169314995327E-2</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" ref="O25:R25" si="65">O8/O3</f>
+        <v>2.0827586206896551E-2</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="65"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="65"/>
+        <v>0.02</v>
+      </c>
+      <c r="R25" s="8">
+        <f t="shared" si="65"/>
+        <v>0.04</v>
+      </c>
+      <c r="T25" s="8">
+        <f t="shared" ref="T25:AJ25" si="66">T8/T3</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="8">
         <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
+        <v>4.7709300045748644E-3</v>
+      </c>
+      <c r="V25" s="8">
         <f t="shared" si="66"/>
-        <v>4.7037263286499695E-2</v>
-      </c>
-      <c r="K25" s="8">
+        <v>4.977758949375132E-3</v>
+      </c>
+      <c r="W25" s="8">
         <f t="shared" si="66"/>
-        <v>1.9848771266540641E-2</v>
-      </c>
-      <c r="L25" s="8">
+        <v>1.6009353779736474E-2</v>
+      </c>
+      <c r="X25" s="8">
         <f t="shared" si="66"/>
-        <v>1.4078437006177273E-2</v>
-      </c>
-      <c r="M25" s="8">
+        <v>2.1475814805960634E-2</v>
+      </c>
+      <c r="Y25" s="8">
         <f t="shared" si="66"/>
-        <v>2.388383769846655E-2</v>
-      </c>
-      <c r="N25" s="8">
+        <v>2.4141726133418539E-2</v>
+      </c>
+      <c r="Z25" s="8">
         <f t="shared" si="66"/>
-        <v>3.7388169314995327E-2</v>
-      </c>
-      <c r="O25" s="8">
-        <f t="shared" ref="O25:R25" si="67">O8/O3</f>
+        <v>2.5414443123265958E-2</v>
+      </c>
+      <c r="AA25" s="8">
+        <f t="shared" si="66"/>
         <v>0.02</v>
       </c>
-      <c r="P25" s="8">
-        <f t="shared" si="67"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="Q25" s="8">
-        <f t="shared" si="67"/>
+      <c r="AB25" s="8">
+        <f t="shared" si="66"/>
         <v>0.02</v>
       </c>
-      <c r="R25" s="8">
-        <f t="shared" si="67"/>
-        <v>0.04</v>
-      </c>
-      <c r="T25" s="8">
-        <f t="shared" ref="T25:AJ25" si="68">T8/T3</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="8">
-        <f t="shared" si="68"/>
-        <v>4.7709300045748644E-3</v>
-      </c>
-      <c r="V25" s="8">
-        <f t="shared" si="68"/>
-        <v>4.977758949375132E-3</v>
-      </c>
-      <c r="W25" s="8">
-        <f t="shared" si="68"/>
-        <v>1.6009353779736474E-2</v>
-      </c>
-      <c r="X25" s="8">
-        <f t="shared" si="68"/>
-        <v>2.1475814805960634E-2</v>
-      </c>
-      <c r="Y25" s="8">
-        <f t="shared" si="68"/>
-        <v>2.4141726133418539E-2</v>
-      </c>
-      <c r="Z25" s="8">
-        <f t="shared" si="68"/>
-        <v>2.5236939754118944E-2</v>
-      </c>
-      <c r="AA25" s="8">
-        <f t="shared" si="68"/>
+      <c r="AC25" s="8">
+        <f t="shared" si="66"/>
         <v>0.02</v>
       </c>
-      <c r="AB25" s="8">
-        <f t="shared" si="68"/>
+      <c r="AD25" s="8">
+        <f t="shared" si="66"/>
         <v>0.02</v>
       </c>
-      <c r="AC25" s="8">
-        <f t="shared" si="68"/>
+      <c r="AE25" s="8">
+        <f t="shared" si="66"/>
         <v>0.02</v>
       </c>
-      <c r="AD25" s="8">
-        <f t="shared" si="68"/>
+      <c r="AF25" s="8">
+        <f t="shared" si="66"/>
         <v>0.02</v>
       </c>
-      <c r="AE25" s="8">
-        <f t="shared" si="68"/>
+      <c r="AG25" s="8">
+        <f t="shared" si="66"/>
         <v>0.02</v>
       </c>
-      <c r="AF25" s="8">
-        <f t="shared" si="68"/>
+      <c r="AH25" s="8">
+        <f t="shared" si="66"/>
         <v>0.02</v>
       </c>
-      <c r="AG25" s="8">
-        <f t="shared" si="68"/>
+      <c r="AI25" s="8">
+        <f t="shared" si="66"/>
         <v>0.02</v>
       </c>
-      <c r="AH25" s="8">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
-      </c>
-      <c r="AI25" s="8">
-        <f t="shared" si="68"/>
-        <v>0.02</v>
-      </c>
       <c r="AJ25" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0.02</v>
       </c>
       <c r="AL25" t="s">
@@ -4182,7 +4174,7 @@
       </c>
       <c r="AM25" s="1">
         <f>NPV(AM24,Z17:EP17)</f>
-        <v>340234.07756115211</v>
+        <v>340370.30530844227</v>
       </c>
     </row>
     <row r="26" spans="1:146" x14ac:dyDescent="0.3">
@@ -4190,19 +4182,19 @@
         <v>43</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" ref="C26:F26" si="69">C9/C3</f>
+        <f t="shared" ref="C26:F26" si="67">C9/C3</f>
         <v>0.57093090768337529</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.54902674185919598</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.54065323141070187</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>0.54736118274024415</v>
       </c>
       <c r="G26" s="8">
@@ -4210,115 +4202,115 @@
         <v>0.54558107167710512</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ref="H26:N26" si="70">H9/H3</f>
+        <f t="shared" ref="H26:N26" si="68">H9/H3</f>
         <v>0.58318711118200672</v>
       </c>
       <c r="I26" s="8">
+        <f t="shared" si="68"/>
+        <v>0.58839736721261293</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="68"/>
+        <v>0.51496640195479537</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="68"/>
+        <v>0.56773787019533717</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="68"/>
+        <v>0.57980175262174971</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="68"/>
+        <v>0.54335730764011403</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="68"/>
+        <v>0.52583789558018423</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" ref="O26:R26" si="69">O9/O3</f>
+        <v>0.57227586206896552</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" si="69"/>
+        <v>0.55825425328873113</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="69"/>
+        <v>0.55001192253261744</v>
+      </c>
+      <c r="R26" s="8">
+        <f t="shared" si="69"/>
+        <v>0.51971558285485386</v>
+      </c>
+      <c r="T26" s="8">
+        <f t="shared" ref="T26:AJ26" si="70">T9/T3</f>
+        <v>0.57241011668542319</v>
+      </c>
+      <c r="U26" s="8">
         <f t="shared" si="70"/>
-        <v>0.58839736721261293</v>
-      </c>
-      <c r="J26" s="8">
+        <v>0.52813541598588332</v>
+      </c>
+      <c r="V26" s="8">
         <f t="shared" si="70"/>
-        <v>0.51496640195479537</v>
-      </c>
-      <c r="K26" s="8">
+        <v>0.53389112476170308</v>
+      </c>
+      <c r="W26" s="8">
         <f t="shared" si="70"/>
-        <v>0.56773787019533717</v>
-      </c>
-      <c r="L26" s="8">
+        <v>0.55151324369294419</v>
+      </c>
+      <c r="X26" s="8">
         <f t="shared" si="70"/>
-        <v>0.57980175262174971</v>
-      </c>
-      <c r="M26" s="8">
+        <v>0.55813212208144081</v>
+      </c>
+      <c r="Y26" s="8">
         <f t="shared" si="70"/>
-        <v>0.54335730764011403</v>
-      </c>
-      <c r="N26" s="8">
+        <v>0.55320055383959954</v>
+      </c>
+      <c r="Z26" s="8">
         <f t="shared" si="70"/>
-        <v>0.52583789558018423</v>
-      </c>
-      <c r="O26" s="8">
-        <f t="shared" ref="O26:R26" si="71">O9/O3</f>
-        <v>0.56687689245027351</v>
-      </c>
-      <c r="P26" s="8">
-        <f t="shared" si="71"/>
-        <v>0.55825425328873113</v>
-      </c>
-      <c r="Q26" s="8">
-        <f t="shared" si="71"/>
-        <v>0.55001192253261744</v>
-      </c>
-      <c r="R26" s="8">
-        <f t="shared" si="71"/>
-        <v>0.51971558285485386</v>
-      </c>
-      <c r="T26" s="8">
-        <f t="shared" ref="T26:AJ26" si="72">T9/T3</f>
-        <v>0.57241011668542319</v>
-      </c>
-      <c r="U26" s="8">
-        <f t="shared" si="72"/>
-        <v>0.52813541598588332</v>
-      </c>
-      <c r="V26" s="8">
-        <f t="shared" si="72"/>
-        <v>0.53389112476170308</v>
-      </c>
-      <c r="W26" s="8">
-        <f t="shared" si="72"/>
-        <v>0.55151324369294419</v>
-      </c>
-      <c r="X26" s="8">
-        <f t="shared" si="72"/>
-        <v>0.55813212208144081</v>
-      </c>
-      <c r="Y26" s="8">
-        <f t="shared" si="72"/>
-        <v>0.55320055383959954</v>
-      </c>
-      <c r="Z26" s="8">
-        <f t="shared" si="72"/>
-        <v>0.54796677382668046</v>
+        <v>0.54925394213238199</v>
       </c>
       <c r="AA26" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.59000000000000008</v>
       </c>
       <c r="AB26" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.59</v>
       </c>
       <c r="AC26" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.59</v>
       </c>
       <c r="AD26" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="AE26" s="8">
+        <f t="shared" si="70"/>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="70"/>
         <v>0.59</v>
       </c>
-      <c r="AE26" s="8">
-        <f t="shared" si="72"/>
+      <c r="AG26" s="8">
+        <f t="shared" si="70"/>
         <v>0.59</v>
       </c>
-      <c r="AF26" s="8">
-        <f t="shared" si="72"/>
+      <c r="AH26" s="8">
+        <f t="shared" si="70"/>
         <v>0.59</v>
       </c>
-      <c r="AG26" s="8">
-        <f t="shared" si="72"/>
+      <c r="AI26" s="8">
+        <f t="shared" si="70"/>
         <v>0.59</v>
       </c>
-      <c r="AH26" s="8">
-        <f t="shared" si="72"/>
-        <v>0.59</v>
-      </c>
-      <c r="AI26" s="8">
-        <f t="shared" si="72"/>
-        <v>0.59</v>
-      </c>
       <c r="AJ26" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.59</v>
       </c>
       <c r="AL26" t="s">
@@ -4326,7 +4318,7 @@
       </c>
       <c r="AM26" s="1">
         <f>Main!D8</f>
-        <v>-8962</v>
+        <v>-10908</v>
       </c>
     </row>
     <row r="27" spans="1:146" x14ac:dyDescent="0.3">
@@ -4334,19 +4326,19 @@
         <v>44</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" ref="C27:F27" si="73">C15/C3</f>
+        <f t="shared" ref="C27:F27" si="71">C15/C3</f>
         <v>0.53667505322237274</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>0.50900491177005636</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>0.53370396108408613</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>0.53102974041602202</v>
       </c>
       <c r="G27" s="8">
@@ -4354,123 +4346,123 @@
         <v>0.49634655532359079</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" ref="H27:N27" si="74">H15/H3</f>
+        <f t="shared" ref="H27:N27" si="72">H15/H3</f>
         <v>0.59084383474238311</v>
       </c>
       <c r="I27" s="8">
+        <f t="shared" si="72"/>
+        <v>0.57569263737945808</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="72"/>
+        <v>0.50717776420281002</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="72"/>
+        <v>0.56049149338374293</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="72"/>
+        <v>0.56586697313604373</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="72"/>
+        <v>0.52463020762654367</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="72"/>
+        <v>0.51956202430231002</v>
+      </c>
+      <c r="O27" s="8">
+        <f t="shared" ref="O27:R27" si="73">O15/O3</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" si="73"/>
+        <v>0.54556365054282019</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" si="73"/>
+        <v>0.53295688502025862</v>
+      </c>
+      <c r="R27" s="8">
+        <f t="shared" si="73"/>
+        <v>0.51389613857900696</v>
+      </c>
+      <c r="T27" s="8">
+        <f t="shared" ref="T27:AJ27" si="74">T15/T3</f>
+        <v>0.57637860569803945</v>
+      </c>
+      <c r="U27" s="8">
         <f t="shared" si="74"/>
-        <v>0.57569263737945808</v>
-      </c>
-      <c r="J27" s="8">
+        <v>0.50715639500686227</v>
+      </c>
+      <c r="V27" s="8">
         <f t="shared" si="74"/>
-        <v>0.50717776420281002</v>
-      </c>
-      <c r="K27" s="8">
+        <v>0.54580597331073921</v>
+      </c>
+      <c r="W27" s="8">
         <f t="shared" si="74"/>
-        <v>0.56049149338374293</v>
-      </c>
-      <c r="L27" s="8">
+        <v>0.52758915321311328</v>
+      </c>
+      <c r="X27" s="8">
         <f t="shared" si="74"/>
-        <v>0.56586697313604373</v>
-      </c>
-      <c r="M27" s="8">
+        <v>0.54342975535899274</v>
+      </c>
+      <c r="Y27" s="8">
         <f t="shared" si="74"/>
-        <v>0.52463020762654367</v>
-      </c>
-      <c r="N27" s="8">
+        <v>0.54155572123406825</v>
+      </c>
+      <c r="Z27" s="8">
         <f t="shared" si="74"/>
-        <v>0.51956202430231002</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" ref="O27:R27" si="75">O15/O3</f>
-        <v>0.56033591515131231</v>
-      </c>
-      <c r="P27" s="8">
-        <f t="shared" si="75"/>
-        <v>0.54556365054282019</v>
-      </c>
-      <c r="Q27" s="8">
-        <f t="shared" si="75"/>
-        <v>0.53295688502025862</v>
-      </c>
-      <c r="R27" s="8">
-        <f t="shared" si="75"/>
-        <v>0.51389613857900696</v>
-      </c>
-      <c r="T27" s="8">
-        <f t="shared" ref="T27:AJ27" si="76">T15/T3</f>
-        <v>0.57637860569803945</v>
-      </c>
-      <c r="U27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.50715639500686227</v>
-      </c>
-      <c r="V27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.54580597331073921</v>
-      </c>
-      <c r="W27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.52758915321311328</v>
-      </c>
-      <c r="X27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.54342975535899274</v>
-      </c>
-      <c r="Y27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.54155572123406825</v>
-      </c>
-      <c r="Z27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.53733256751112657</v>
+        <v>0.53639179389615532</v>
       </c>
       <c r="AA27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.57935029962596396</v>
+        <f t="shared" si="74"/>
+        <v>0.57825931034482758</v>
       </c>
       <c r="AB27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.58005527195587248</v>
+        <f t="shared" si="74"/>
+        <v>0.5790221706562253</v>
       </c>
       <c r="AC27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.58054005399914577</v>
+        <f t="shared" si="74"/>
+        <v>0.57954329364736734</v>
       </c>
       <c r="AD27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.58091718462624053</v>
+        <f t="shared" si="74"/>
+        <v>0.57994631090108661</v>
       </c>
       <c r="AE27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.58119711848846756</v>
+        <f t="shared" si="74"/>
+        <v>0.58024234944691655</v>
       </c>
       <c r="AF27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.58138730910102143</v>
+        <f t="shared" si="74"/>
+        <v>0.58043924500775268</v>
       </c>
       <c r="AG27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.58157513029762942</v>
+        <f t="shared" si="74"/>
+        <v>0.58063370732877129</v>
       </c>
       <c r="AH27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.58176062031257691</v>
+        <f t="shared" si="74"/>
+        <v>0.58082577522683732</v>
       </c>
       <c r="AI27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.58194381656534311</v>
+        <f t="shared" si="74"/>
+        <v>0.58101548669943348</v>
       </c>
       <c r="AJ27" s="8">
-        <f t="shared" si="76"/>
-        <v>0.58212475568143196</v>
+        <f t="shared" si="74"/>
+        <v>0.58120287894550393</v>
       </c>
       <c r="AL27" t="s">
         <v>50</v>
       </c>
       <c r="AM27" s="1">
         <f>AM25+AM26</f>
-        <v>331272.07756115211</v>
+        <v>329462.30530844227</v>
       </c>
     </row>
     <row r="28" spans="1:146" x14ac:dyDescent="0.3">
@@ -4478,19 +4470,19 @@
         <v>21</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" ref="C28:F28" si="77">C16/C15</f>
+        <f t="shared" ref="C28:F28" si="75">C16/C15</f>
         <v>5.120807789397764E-2</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.18691922802001429</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.1865234375</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>0.18258336031078018</v>
       </c>
       <c r="G28" s="8">
@@ -4498,115 +4490,115 @@
         <v>0.17245005257623555</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" ref="H28:N28" si="78">H16/H15</f>
+        <f t="shared" ref="H28:N28" si="76">H16/H15</f>
         <v>0.23191144708423325</v>
       </c>
       <c r="I28" s="8">
+        <f t="shared" si="76"/>
+        <v>0.14969423025791012</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="76"/>
+        <v>0.15959048479373683</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="76"/>
+        <v>0.1537380550871276</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="76"/>
+        <v>0.17288651942117289</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="76"/>
+        <v>0.15597516813243661</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" si="76"/>
+        <v>0.14109483423284502</v>
+      </c>
+      <c r="O28" s="8">
+        <f t="shared" ref="O28:R28" si="77">O16/O15</f>
+        <v>0.18630612751178369</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" si="77"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" si="77"/>
+        <v>0.15</v>
+      </c>
+      <c r="R28" s="8">
+        <f t="shared" si="77"/>
+        <v>0.15</v>
+      </c>
+      <c r="T28" s="8">
+        <f t="shared" ref="T28:AJ28" si="78">T16/T15</f>
+        <v>0.16575891480834445</v>
+      </c>
+      <c r="U28" s="8">
         <f t="shared" si="78"/>
-        <v>0.14969423025791012</v>
-      </c>
-      <c r="J28" s="8">
+        <v>0.173840206185567</v>
+      </c>
+      <c r="V28" s="8">
         <f t="shared" si="78"/>
-        <v>0.15959048479373683</v>
-      </c>
-      <c r="K28" s="8">
+        <v>0.15717473561657128</v>
+      </c>
+      <c r="W28" s="8">
         <f t="shared" si="78"/>
-        <v>0.1537380550871276</v>
-      </c>
-      <c r="L28" s="8">
+        <v>0.15359699965905216</v>
+      </c>
+      <c r="X28" s="8">
         <f t="shared" si="78"/>
-        <v>0.17288651942117289</v>
-      </c>
-      <c r="M28" s="8">
+        <v>0.17919202287557739</v>
+      </c>
+      <c r="Y28" s="8">
         <f t="shared" si="78"/>
-        <v>0.15597516813243661</v>
-      </c>
-      <c r="N28" s="8">
+        <v>0.15602464927232201</v>
+      </c>
+      <c r="Z28" s="8">
         <f t="shared" si="78"/>
-        <v>0.14109483423284502</v>
-      </c>
-      <c r="O28" s="8">
-        <f t="shared" ref="O28:R28" si="79">O16/O15</f>
-        <v>0.15</v>
-      </c>
-      <c r="P28" s="8">
-        <f t="shared" si="79"/>
-        <v>0.15</v>
-      </c>
-      <c r="Q28" s="8">
-        <f t="shared" si="79"/>
-        <v>0.15</v>
-      </c>
-      <c r="R28" s="8">
-        <f t="shared" si="79"/>
-        <v>0.15</v>
-      </c>
-      <c r="T28" s="8">
-        <f t="shared" ref="T28:AJ28" si="80">T16/T15</f>
-        <v>0.16575891480834445</v>
-      </c>
-      <c r="U28" s="8">
-        <f t="shared" si="80"/>
-        <v>0.173840206185567</v>
-      </c>
-      <c r="V28" s="8">
-        <f t="shared" si="80"/>
-        <v>0.15717473561657128</v>
-      </c>
-      <c r="W28" s="8">
-        <f t="shared" si="80"/>
-        <v>0.15359699965905216</v>
-      </c>
-      <c r="X28" s="8">
-        <f t="shared" si="80"/>
-        <v>0.17919202287557739</v>
-      </c>
-      <c r="Y28" s="8">
-        <f t="shared" si="80"/>
-        <v>0.15602464927232201</v>
-      </c>
-      <c r="Z28" s="8">
-        <f t="shared" si="80"/>
-        <v>0.15000000000000002</v>
+        <v>0.15865133916168569</v>
       </c>
       <c r="AA28" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.16</v>
       </c>
       <c r="AB28" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.16</v>
       </c>
       <c r="AC28" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.16</v>
       </c>
       <c r="AD28" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.16</v>
       </c>
       <c r="AE28" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.16</v>
       </c>
       <c r="AF28" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.16</v>
       </c>
       <c r="AG28" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.16</v>
       </c>
       <c r="AH28" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.16</v>
       </c>
       <c r="AI28" s="8">
-        <f t="shared" si="80"/>
-        <v>0.16</v>
+        <f t="shared" si="78"/>
+        <v>0.16000000000000003</v>
       </c>
       <c r="AJ28" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>0.16</v>
       </c>
       <c r="AL28" t="s">
@@ -4614,7 +4606,7 @@
       </c>
       <c r="AM28" s="10">
         <f>AM27/AJ18</f>
-        <v>363.35645229916872</v>
+        <v>362.80399219077447</v>
       </c>
     </row>
     <row r="29" spans="1:146" x14ac:dyDescent="0.3">
@@ -4622,19 +4614,19 @@
         <v>45</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:F29" si="81">C17/C3</f>
+        <f t="shared" ref="C29:F29" si="79">C17/C3</f>
         <v>0.50919295529320685</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>0.41386210660360195</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>0.43415566365531622</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>0.43407254598590339</v>
       </c>
       <c r="G29" s="8">
@@ -4642,123 +4634,123 @@
         <v>0.41075156576200417</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" ref="H29:N29" si="82">H17/H3</f>
+        <f t="shared" ref="H29:N29" si="80">H17/H3</f>
         <v>0.45382038602647951</v>
       </c>
       <c r="I29" s="8">
+        <f t="shared" si="80"/>
+        <v>0.48951477116179398</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" si="80"/>
+        <v>0.42623701893708005</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="80"/>
+        <v>0.47432262129804664</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="80"/>
+        <v>0.46803620169515875</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="80"/>
+        <v>0.44280092278463834</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="80"/>
+        <v>0.44625450660969423</v>
+      </c>
+      <c r="O29" s="8">
+        <f t="shared" ref="O29:R29" si="81">O17/O3</f>
+        <v>0.45241379310344826</v>
+      </c>
+      <c r="P29" s="8">
+        <f t="shared" si="81"/>
+        <v>0.46372910296139724</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" si="81"/>
+        <v>0.45301335226721984</v>
+      </c>
+      <c r="R29" s="8">
+        <f t="shared" si="81"/>
+        <v>0.43681171779215594</v>
+      </c>
+      <c r="T29" s="8">
+        <f t="shared" ref="T29:AJ29" si="82">T17/T3</f>
+        <v>0.48083871349878576</v>
+      </c>
+      <c r="U29" s="8">
         <f t="shared" si="82"/>
-        <v>0.48951477116179398</v>
-      </c>
-      <c r="J29" s="8">
+        <v>0.41899222273054049</v>
+      </c>
+      <c r="V29" s="8">
         <f t="shared" si="82"/>
-        <v>0.42623701893708005</v>
-      </c>
-      <c r="K29" s="8">
+        <v>0.46001906375767848</v>
+      </c>
+      <c r="W29" s="8">
         <f t="shared" si="82"/>
-        <v>0.47432262129804664</v>
-      </c>
-      <c r="L29" s="8">
+        <v>0.44655304222691911</v>
+      </c>
+      <c r="X29" s="8">
         <f t="shared" si="82"/>
-        <v>0.46803620169515875</v>
-      </c>
-      <c r="M29" s="8">
+        <v>0.44605147820543467</v>
+      </c>
+      <c r="Y29" s="8">
         <f t="shared" si="82"/>
-        <v>0.44280092278463834</v>
-      </c>
-      <c r="N29" s="8">
+        <v>0.45705967976710332</v>
+      </c>
+      <c r="Z29" s="8">
         <f t="shared" si="82"/>
-        <v>0.44625450660969423</v>
-      </c>
-      <c r="O29" s="8">
-        <f t="shared" ref="O29:R29" si="83">O17/O3</f>
-        <v>0.4762855278786155</v>
-      </c>
-      <c r="P29" s="8">
-        <f t="shared" si="83"/>
-        <v>0.46372910296139724</v>
-      </c>
-      <c r="Q29" s="8">
-        <f t="shared" si="83"/>
-        <v>0.45301335226721984</v>
-      </c>
-      <c r="R29" s="8">
-        <f t="shared" si="83"/>
-        <v>0.43681171779215594</v>
-      </c>
-      <c r="T29" s="8">
-        <f t="shared" ref="T29:AJ29" si="84">T17/T3</f>
-        <v>0.48083871349878576</v>
-      </c>
-      <c r="U29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.41899222273054049</v>
-      </c>
-      <c r="V29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.46001906375767848</v>
-      </c>
-      <c r="W29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.44655304222691911</v>
-      </c>
-      <c r="X29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.44605147820543467</v>
-      </c>
-      <c r="Y29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.45705967976710332</v>
-      </c>
-      <c r="Z29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.45673268238445758</v>
+        <v>0.45129251747919136</v>
       </c>
       <c r="AA29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.48665425168580972</v>
+        <f t="shared" si="82"/>
+        <v>0.48573782068965515</v>
       </c>
       <c r="AB29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.48724642844293292</v>
+        <f t="shared" si="82"/>
+        <v>0.48637862335122922</v>
       </c>
       <c r="AC29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.48765364535928235</v>
+        <f t="shared" si="82"/>
+        <v>0.48681636666378858</v>
       </c>
       <c r="AD29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.4879704350860421</v>
+        <f t="shared" si="82"/>
+        <v>0.48715490115691273</v>
       </c>
       <c r="AE29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.48820557953031268</v>
+        <f t="shared" si="82"/>
+        <v>0.48740357353540992</v>
       </c>
       <c r="AF29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.48836533964485807</v>
+        <f t="shared" si="82"/>
+        <v>0.48756896580651227</v>
       </c>
       <c r="AG29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.48852310945000871</v>
+        <f t="shared" si="82"/>
+        <v>0.48773231415616791</v>
       </c>
       <c r="AH29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.48867892106256466</v>
+        <f t="shared" si="82"/>
+        <v>0.48789365119054334</v>
       </c>
       <c r="AI29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.48883280591488815</v>
+        <f t="shared" si="82"/>
+        <v>0.48805300882752406</v>
       </c>
       <c r="AJ29" s="8">
-        <f t="shared" si="84"/>
-        <v>0.48898479477240281</v>
+        <f t="shared" si="82"/>
+        <v>0.48821041831422329</v>
       </c>
       <c r="AL29" t="s">
         <v>52</v>
       </c>
       <c r="AM29" s="10">
         <f>Main!D3</f>
-        <v>525</v>
+        <v>559.39</v>
       </c>
     </row>
     <row r="30" spans="1:146" x14ac:dyDescent="0.3">
@@ -4767,7 +4759,7 @@
       </c>
       <c r="AM30" s="9">
         <f>AM28/AM29-1</f>
-        <v>-0.30789247181110724</v>
+        <v>-0.35142924937740316</v>
       </c>
     </row>
     <row r="31" spans="1:146" x14ac:dyDescent="0.3">
